--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="client_server" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="references" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="buttons" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="form" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="controller" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="264">
   <si>
     <t>client</t>
   </si>
@@ -704,6 +706,120 @@
   <si>
     <t>snippet for registering event handler</t>
   </si>
+  <si>
+    <t>atom type</t>
+  </si>
+  <si>
+    <t>form label</t>
+  </si>
+  <si>
+    <t>form input</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>label.class=radio-inline</t>
+  </si>
+  <si>
+    <t>input.type=radio</t>
+  </si>
+  <si>
+    <t>label.class=form-control</t>
+  </si>
+  <si>
+    <t>input.type=date</t>
+  </si>
+  <si>
+    <t>dd.mm.jjjj</t>
+  </si>
+  <si>
+    <t>input.type=datetime</t>
+  </si>
+  <si>
+    <t>dd.mm.jjjj uu:mm:ss</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>input.type=number</t>
+  </si>
+  <si>
+    <t>123.45</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>textarea.rows.cols</t>
+  </si>
+  <si>
+    <t>input.type=text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>input.type=time</t>
+  </si>
+  <si>
+    <t>uu:mm:ss</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>input.type=url</t>
+  </si>
+  <si>
+    <t>enumeration type</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>page mode</t>
+  </si>
+  <si>
+    <t>fragment mode</t>
+  </si>
+  <si>
+    <t>xml mode</t>
+  </si>
+  <si>
+    <t>json mode</t>
+  </si>
+  <si>
+    <t>serialize</t>
+  </si>
+  <si>
+    <t>render with template given by render tree</t>
+  </si>
+  <si>
+    <t>convert to XML</t>
+  </si>
+  <si>
+    <t>encode_dict / json.dumps</t>
+  </si>
+  <si>
+    <t>finalize</t>
+  </si>
+  <si>
+    <t>render with site template</t>
+  </si>
 </sst>
 </file>
 
@@ -908,7 +1024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1061,6 +1177,18 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1138,15 +1266,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1155,8 +1283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323440" y="1368360"/>
-          <a:ext cx="2077920" cy="4680"/>
+          <a:off x="2377440" y="1350360"/>
+          <a:ext cx="2097000" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1181,15 +1309,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1198,8 +1326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2345040" y="595080"/>
-          <a:ext cx="2056320" cy="360"/>
+          <a:off x="2399040" y="577080"/>
+          <a:ext cx="2075400" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1224,15 +1352,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>181440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1241,8 +1369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5375520" y="1177200"/>
-          <a:ext cx="1821960" cy="1080"/>
+          <a:off x="5448600" y="1159200"/>
+          <a:ext cx="1840680" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1267,15 +1395,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1284,8 +1412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2338920" y="2694600"/>
-          <a:ext cx="2062440" cy="1080"/>
+          <a:off x="2392920" y="2676600"/>
+          <a:ext cx="2081520" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1310,15 +1438,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133560</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1327,8 +1455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5381640" y="785520"/>
-          <a:ext cx="1815840" cy="360"/>
+          <a:off x="5454720" y="767520"/>
+          <a:ext cx="1834560" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1353,15 +1481,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1370,8 +1498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2342160" y="2304720"/>
-          <a:ext cx="2059200" cy="3960"/>
+          <a:off x="2396160" y="2286720"/>
+          <a:ext cx="2078280" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1396,15 +1524,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129960</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1413,8 +1541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2339640" y="3054600"/>
-          <a:ext cx="2061720" cy="1440"/>
+          <a:off x="2393640" y="3036600"/>
+          <a:ext cx="2080800" cy="1440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1439,15 +1567,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>195840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>194400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1456,8 +1584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5389920" y="3261240"/>
-          <a:ext cx="1818000" cy="0"/>
+          <a:off x="5463000" y="3243240"/>
+          <a:ext cx="1836720" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1482,15 +1610,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1499,8 +1627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5397840" y="3631680"/>
-          <a:ext cx="1805040" cy="720"/>
+          <a:off x="5470920" y="3613680"/>
+          <a:ext cx="1823760" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1525,15 +1653,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>126000</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>173880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1542,8 +1670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2335680" y="3833280"/>
-          <a:ext cx="2060640" cy="4320"/>
+          <a:off x="2389680" y="3815280"/>
+          <a:ext cx="2079720" cy="4320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1568,15 +1696,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
+      <xdr:colOff>721440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>672480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>726480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1585,7 +1713,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1657800" y="4689720"/>
+          <a:off x="1711800" y="4671720"/>
           <a:ext cx="5040" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1611,15 +1739,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>776520</xdr:colOff>
+      <xdr:colOff>830520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1628,7 +1756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2319480" y="4590000"/>
+          <a:off x="2373480" y="4572000"/>
           <a:ext cx="666720" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1654,15 +1782,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
+      <xdr:colOff>831240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1671,7 +1799,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2350440" y="5345640"/>
+          <a:off x="2404440" y="5327640"/>
           <a:ext cx="636480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1696,15 +1824,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1713,7 +1841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2980080" y="4600080"/>
+          <a:off x="3034080" y="4582080"/>
           <a:ext cx="0" cy="751680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1738,15 +1866,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>179280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1755,8 +1883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2340360" y="5537160"/>
-          <a:ext cx="2061360" cy="0"/>
+          <a:off x="2394360" y="5519160"/>
+          <a:ext cx="2080440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1781,15 +1909,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>135360</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1798,8 +1926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5394240" y="5727240"/>
-          <a:ext cx="1808640" cy="5760"/>
+          <a:off x="5467320" y="5709240"/>
+          <a:ext cx="1827360" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1824,15 +1952,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1841,8 +1969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5382360" y="6118560"/>
-          <a:ext cx="1810080" cy="5760"/>
+          <a:off x="5455440" y="6100560"/>
+          <a:ext cx="1828800" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1867,15 +1995,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1884,8 +2012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2355480" y="6303600"/>
-          <a:ext cx="2045880" cy="720"/>
+          <a:off x="2409480" y="6285600"/>
+          <a:ext cx="2064960" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1920,18 +2048,18 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="1" sqref="C6 A7"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28751,17 +28879,17 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -29102,23 +29230,23 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="C6 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -29416,17 +29544,17 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="C6 C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1023" min="9" style="1" width="9.10526315789474"/>
@@ -29680,21 +29808,21 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="C6 F23"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.60728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.39271255060729"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.60728744939271"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="16" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
   </cols>
@@ -30550,7 +30678,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="C6 H20"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -30563,8 +30691,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="8" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.96356275303644"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31027,4 +31155,414 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>123</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21457489878543"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="client_server" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="282">
   <si>
     <t>client</t>
   </si>
@@ -134,46 +134,31 @@
     <t>item</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
-    <t>item+</t>
-  </si>
-  <si>
-    <t>item+buttons</t>
+    <t>flattened item (depth&lt;2)</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>{'item': dict, 'buttons': list}</t>
+    <t>lastname: {label:'Lastname', value:'Clinton', ...}</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>dict {name:value, name:value, ...}</t>
+    <t>children.0: {label:'Kinderen', value:'...', ...}</t>
   </si>
   <si>
     <t>tuple (label, url)</t>
   </si>
   <si>
-    <t>cursor</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fields</t>
-  </si>
-  <si>
-    <t>[string, string, ...]</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>dict {name:label, name:label, ...}</t>
+    <t>children.1: {label:'', value:'...', ...}</t>
   </si>
   <si>
     <t>buttons</t>
@@ -203,19 +188,49 @@
     <t>delete button (ibid, with JS)</t>
   </si>
   <si>
+    <t>feedback</t>
+  </si>
+  <si>
     <t>itemlist</t>
   </si>
   <si>
-    <t>[item+, item+, ...,]</t>
+    <t>[item+buttons, item+buttons, ...,]</t>
   </si>
   <si>
-    <t>see above</t>
+    <t>item+buttons</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>{'item': dict, 'buttons': list}</t>
+  </si>
+  <si>
+    <t>flat dict (depth=1)</t>
+  </si>
+  <si>
+    <t>button (icon, size=extra small)</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>dict {name:value, name:value, ...}</t>
   </si>
   <si>
     <t>skip, limit, incl, incl0, count, query, …</t>
   </si>
   <si>
-    <t>button (icon, size=extra small)</t>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>[string, string, ...]</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>dict {name:label, name:label, ...}</t>
   </si>
   <si>
     <t>view method</t>
@@ -485,9 +500,6 @@
     <t>journal</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -504,9 +516,6 @@
   </si>
   <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>dict</t>
   </si>
   <si>
     <t>&lt;recursion&gt;</t>
@@ -600,9 +609,6 @@
   </si>
   <si>
     <t>Field</t>
-  </si>
-  <si>
-    <t>used to determine genus of render tree node</t>
   </si>
   <si>
     <t>optional</t>
@@ -707,31 +713,49 @@
     <t>snippet for registering event handler</t>
   </si>
   <si>
-    <t>atom type</t>
+    <t>domain</t>
   </si>
   <si>
-    <t>form label</t>
+    <t>range</t>
   </si>
   <si>
-    <t>form input</t>
+    <t>control</t>
+  </si>
+  <si>
+    <t>html</t>
   </si>
   <si>
     <t>placeholder</t>
   </si>
   <si>
-    <t>label.class=radio-inline</t>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Actief</t>
+  </si>
+  <si>
+    <t>False, True</t>
+  </si>
+  <si>
+    <t>nee, ja</t>
   </si>
   <si>
     <t>input.type=radio</t>
   </si>
   <si>
-    <t>label.class=form-control</t>
+    <t>Geb.datum</t>
   </si>
   <si>
     <t>input.type=date</t>
   </si>
   <si>
     <t>dd.mm.jjjj</t>
+  </si>
+  <si>
+    <t>2016-09-12T11:32:00</t>
+  </si>
+  <si>
+    <t>Gemaakt op</t>
   </si>
   <si>
     <t>input.type=datetime</t>
@@ -743,25 +767,49 @@
     <t>float</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Getal</t>
+  </si>
+  <si>
     <t>input.type=number</t>
   </si>
   <si>
     <t>123.45</t>
   </si>
   <si>
+    <t>Leeftijd</t>
+  </si>
+  <si>
     <t>memo</t>
+  </si>
+  <si>
+    <t>formatted text</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
   </si>
   <si>
     <t>textarea.rows.cols</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Achternaam</t>
+  </si>
+  <si>
     <t>input.type=text</t>
   </si>
   <si>
-    <t>text</t>
+    <t>Notities</t>
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Duur</t>
   </si>
   <si>
     <t>input.type=time</t>
@@ -773,22 +821,28 @@
     <t>url</t>
   </si>
   <si>
-    <t>input.type=url</t>
+    <t>www.bhic.nl</t>
   </si>
   <si>
-    <t>enumeration type</t>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>input.type=url</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>Gender</t>
   </si>
   <si>
-    <t>female</t>
+    <t>0, 1, 2</t>
   </si>
   <si>
-    <t>male</t>
+    <t>unknown, female, male</t>
+  </si>
+  <si>
+    <t>extensions for form</t>
   </si>
   <si>
     <t>page mode</t>
@@ -825,10 +879,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -875,11 +930,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <i val="true"/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -923,6 +977,36 @@
     <font>
       <sz val="9"/>
       <color rgb="FF999999"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFDD4814"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDD4814"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1024,7 +1108,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1177,7 +1261,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1266,15 +1374,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1283,8 +1391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2377440" y="1350360"/>
-          <a:ext cx="2097000" cy="4680"/>
+          <a:off x="2404440" y="1341360"/>
+          <a:ext cx="2106720" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1309,15 +1417,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2399040" y="577080"/>
-          <a:ext cx="2075400" cy="360"/>
+          <a:off x="2426040" y="568080"/>
+          <a:ext cx="2085120" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1352,15 +1460,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1369,8 +1477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5448600" y="1159200"/>
-          <a:ext cx="1840680" cy="1080"/>
+          <a:off x="5484960" y="1150200"/>
+          <a:ext cx="1850400" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1395,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1412,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2392920" y="2676600"/>
-          <a:ext cx="2081520" cy="1080"/>
+          <a:off x="2419920" y="2667600"/>
+          <a:ext cx="2091240" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1438,15 +1546,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1455,8 +1563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5454720" y="767520"/>
-          <a:ext cx="1834560" cy="360"/>
+          <a:off x="5491080" y="758520"/>
+          <a:ext cx="1844280" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1481,15 +1589,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1498,8 +1606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2396160" y="2286720"/>
-          <a:ext cx="2078280" cy="3960"/>
+          <a:off x="2423160" y="2277720"/>
+          <a:ext cx="2088000" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1524,15 +1632,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1541,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2393640" y="3036600"/>
-          <a:ext cx="2080800" cy="1440"/>
+          <a:off x="2420640" y="3027600"/>
+          <a:ext cx="2090520" cy="1440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1567,15 +1675,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>221400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1584,8 +1692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463000" y="3243240"/>
-          <a:ext cx="1836720" cy="0"/>
+          <a:off x="5499360" y="3234240"/>
+          <a:ext cx="1846440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1610,15 +1718,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1627,8 +1735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5470920" y="3613680"/>
-          <a:ext cx="1823760" cy="720"/>
+          <a:off x="5507280" y="3604680"/>
+          <a:ext cx="1833480" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1653,15 +1761,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180000</xdr:colOff>
+      <xdr:colOff>207000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1670,8 +1778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2389680" y="3815280"/>
-          <a:ext cx="2079720" cy="4320"/>
+          <a:off x="2416680" y="3806280"/>
+          <a:ext cx="2089440" cy="4320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1696,15 +1804,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>721440</xdr:colOff>
+      <xdr:colOff>748440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>753480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1713,7 +1821,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1711800" y="4671720"/>
+          <a:off x="1738800" y="4662720"/>
           <a:ext cx="5040" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1739,15 +1847,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>830520</xdr:colOff>
+      <xdr:colOff>857520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1756,7 +1864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2373480" y="4572000"/>
+          <a:off x="2400480" y="4563000"/>
           <a:ext cx="666720" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1782,15 +1890,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>858240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1799,7 +1907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2404440" y="5327640"/>
+          <a:off x="2431440" y="5318640"/>
           <a:ext cx="636480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1824,15 +1932,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>824400</xdr:colOff>
+      <xdr:colOff>851400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>824400</xdr:colOff>
+      <xdr:colOff>851400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1841,7 +1949,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3034080" y="4582080"/>
+          <a:off x="3061080" y="4573080"/>
           <a:ext cx="0" cy="751680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1866,15 +1974,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1883,8 +1991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2394360" y="5519160"/>
-          <a:ext cx="2080440" cy="0"/>
+          <a:off x="2421360" y="5510160"/>
+          <a:ext cx="2090160" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1909,15 +2017,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1926,8 +2034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5467320" y="5709240"/>
-          <a:ext cx="1827360" cy="5760"/>
+          <a:off x="5503680" y="5700240"/>
+          <a:ext cx="1837080" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1952,15 +2060,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>215280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1969,8 +2077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5455440" y="6100560"/>
-          <a:ext cx="1828800" cy="5760"/>
+          <a:off x="5491800" y="6091560"/>
+          <a:ext cx="1838520" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1995,15 +2103,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2012,8 +2120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2409480" y="6285600"/>
-          <a:ext cx="2064960" cy="720"/>
+          <a:off x="2436480" y="6276600"/>
+          <a:ext cx="2074680" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2055,11 +2163,11 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28875,21 +28983,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28903,8 +29011,8 @@
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
@@ -28913,72 +29021,66 @@
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B6" s="0"/>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -28986,237 +29088,238 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="F19" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="0"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="0"/>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="0"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
-      </c>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="0"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="0"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="3" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="0"/>
+      <c r="F30" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="5" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.708333333333333" top="0.954166666666667" bottom="0.75" header="0.747916666666667" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>
@@ -29235,68 +29338,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -29306,198 +29409,198 @@
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -29506,23 +29609,23 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -29550,7 +29653,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
@@ -29568,12 +29671,12 @@
       <c r="B1" s="13"/>
       <c r="C1" s="0"/>
       <c r="D1" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="0"/>
       <c r="G1" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="0"/>
@@ -29591,74 +29694,74 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="0"/>
       <c r="D3" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="0"/>
       <c r="G3" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -29667,17 +29770,17 @@
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
       <c r="D6" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -29694,12 +29797,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="0"/>
       <c r="D8" s="13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="0"/>
@@ -29709,74 +29812,74 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -29808,762 +29911,762 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="20" min="16" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H2" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D2,", ...)")</f>
         <v>Field(Id, ...)</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21"/>
       <c r="B3" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H3" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D3,", ...)")</f>
         <v>Field(Created, ...)</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21"/>
       <c r="B4" s="23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H4" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D4,", ...)")</f>
         <v>Field(Modified, ...)</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21"/>
       <c r="B5" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H5" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D5,", ...)")</f>
         <v>Field(Active, ...)</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H6" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D6,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23"/>
       <c r="B7" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H7" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D7,", ...)")</f>
         <v>Field(ISSN, ...)</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23"/>
       <c r="B8" s="23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H8" s="26" t="str">
         <f aca="false">CONCATENATE("Field(",$D8,", ...)")</f>
         <v>Field(Volume, ...)</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H9" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D9,", ...)")</f>
         <v>Field(VolumeId, ...)</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H10" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D10,", ...)")</f>
         <v>Field(Year, ...)</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
       <c r="B11" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="G11" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H11" s="26" t="str">
         <f aca="false">CONCATENATE("Field(",$D11,", ...)")</f>
         <v>Field(Issue, ...)</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H12" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D12,", ...)")</f>
         <v>Field(IssueId, ...)</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23"/>
       <c r="B13" s="23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H13" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D13,", ...)")</f>
         <v>Field(PublicationDate, ...)</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N13" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23"/>
       <c r="B14" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H14" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D14,", ...)")</f>
         <v>Field(Article, ...)</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H15" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D15,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H16" s="23" t="str">
         <f aca="false">CONCATENATE("Field(",$D16,", ...)")</f>
         <v>Field(ArticleId, ...)</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30586,10 +30689,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -30597,14 +30700,12 @@
       <c r="F19" s="29"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23"/>
       <c r="B20" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>191</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="29"/>
@@ -30613,7 +30714,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23"/>
       <c r="B21" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -30624,7 +30725,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -30635,7 +30736,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23"/>
       <c r="B23" s="23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -30646,7 +30747,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23"/>
       <c r="B24" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -30691,418 +30792,418 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="8" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.0688259109312"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>38</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="I5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>211</v>
-      </c>
       <c r="L5" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D11" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>210</v>
-      </c>
       <c r="J11" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="33"/>
     </row>
@@ -31126,24 +31227,24 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -31160,310 +31261,392 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.12145748987854"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21862348178138"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.61133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4331983805668"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2307692307692"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.51417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>232</v>
+      </c>
       <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="42" t="n">
+        <v>42625</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
+        <v>240</v>
+      </c>
       <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
+        <v>244</v>
+      </c>
       <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
+        <v>249</v>
+      </c>
       <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="38" t="n">
+      <c r="A6" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44" t="n">
         <v>123</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="40"/>
       <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="40"/>
       <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="42" t="n">
+        <v>0.480555555555556</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40" t="s">
+        <v>262</v>
+      </c>
       <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
+        <v>232</v>
+      </c>
       <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>252</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>120</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;L&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -31475,30 +31658,30 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21457489878543"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="16.1983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>257</v>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>275</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -31506,20 +31689,20 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>258</v>
+      <c r="A2" s="46" t="s">
+        <v>276</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -31527,20 +31710,20 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>262</v>
+      <c r="A3" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="client_server" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="render_tree" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="routes" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="references" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="buttons" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="form" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="controller" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="render_tree_example" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="routes" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="references" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="model" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="buttons" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="form" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="controller" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="320">
   <si>
     <t>client</t>
   </si>
@@ -134,52 +135,64 @@
     <t>item</t>
   </si>
   <si>
-    <t>title</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>0, 1, ...</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>tuple(label, url)</t>
+  </si>
+  <si>
+    <t>&lt;a href='url'&gt;label&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>[button1, button2, ...]</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>flattened item (depth&lt;2)</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>lastname: {label:'Lastname', value:'Clinton', ...}</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>children.0: {label:'Kinderen', value:'...', ...}</t>
-  </si>
-  <si>
-    <t>tuple (label, url)</t>
-  </si>
-  <si>
-    <t>children.1: {label:'', value:'...', ...}</t>
-  </si>
-  <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>[button, button, ...]</t>
-  </si>
-  <si>
-    <t>button</t>
+    <t>ui</t>
   </si>
   <si>
     <t>method</t>
   </si>
   <si>
-    <t>tuple (label, icon, url, method)</t>
+    <t>key1: value1</t>
   </si>
   <si>
-    <t>''</t>
+    <t>key1: {'label':label, 'type':'string}</t>
+  </si>
+  <si>
+    <t>'GET' or 'POST'</t>
   </si>
   <si>
     <t>button (label, icon, size=small)</t>
+  </si>
+  <si>
+    <t>key2: value2</t>
+  </si>
+  <si>
+    <t>key2: {'label':label, 'type':'string'}</t>
   </si>
   <si>
     <t>'DELETE'</t>
@@ -188,49 +201,175 @@
     <t>delete button (ibid, with JS)</t>
   </si>
   <si>
-    <t>feedback</t>
+    <t>or</t>
+  </si>
+  <si>
+    <t>key1: {'label':label, 'type':'string', 'control':'input}</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>key2: {'label':label, 'type':'string', 'control':'input}</t>
+  </si>
+  <si>
+    <t>tuple</t>
+  </si>
+  <si>
+    <t>(label, icon, action, method)</t>
   </si>
   <si>
     <t>itemlist</t>
   </si>
   <si>
-    <t>[item+buttons, item+buttons, ...,]</t>
-  </si>
-  <si>
-    <t>item+buttons</t>
+    <t>cursor</t>
   </si>
   <si>
     <t>dict</t>
   </si>
   <si>
-    <t>{'item': dict, 'buttons': list}</t>
+    <t>skip, limit, incl, ...</t>
   </si>
   <si>
-    <t>flat dict (depth=1)</t>
+    <t>[row1, row2, ...,]</t>
   </si>
   <si>
-    <t>button (icon, size=extra small)</t>
+    <t>row</t>
   </si>
   <si>
-    <t>cursor</t>
+    <t>{'item':item, 'buttons':[button1, button2, ...]}</t>
   </si>
   <si>
-    <t>dict {name:value, name:value, ...}</t>
+    <t>original item</t>
   </si>
   <si>
-    <t>skip, limit, incl, incl0, count, query, …</t>
+    <t>flattened item</t>
   </si>
   <si>
-    <t>fields</t>
+    <t>user-interface / metadata</t>
   </si>
   <si>
-    <t>[string, string, ...]</t>
+    <t>firstname</t>
   </si>
   <si>
-    <t>labels</t>
+    <t>Johannes Christiaan</t>
   </si>
   <si>
-    <t>dict {name:label, name:label, ...}</t>
+    <t>label:Voornaam, type:string, control:input</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Poppelier</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>Oosterhout</t>
+  </si>
+  <si>
+    <t>deathdate</t>
+  </si>
+  <si>
+    <t>deathplace</t>
+  </si>
+  <si>
+    <t>Eskilstuna</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>FamilyRef(Family, ...)</t>
+  </si>
+  <si>
+    <t>('Nicolaas Poppelier x Pietronella Maria de Laat', '/family/...')</t>
+  </si>
+  <si>
+    <t>marriages</t>
+  </si>
+  <si>
+    <t>[FamilyRef(Family, ...), FamilyRef(Family, ...)]</t>
+  </si>
+  <si>
+    <t>marriages.0</t>
+  </si>
+  <si>
+    <t>('Johannes Christiaan Poppelier x Josephina van Gils', '/family/...')</t>
+  </si>
+  <si>
+    <t>marriages.1</t>
+  </si>
+  <si>
+    <t>('Johannes Christiaan Poppelier x Eline Linda Tereia Petersen', '/family/...')</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>notes.0</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>sources.0</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>575c0692e842790d2a631d2e</t>
+  </si>
+  <si>
+    <t>ctime</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>non-atomic</t>
   </si>
   <si>
     <t>view method</t>
@@ -392,9 +531,6 @@
     <t>display</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>'123456708'</t>
   </si>
   <si>
@@ -449,9 +585,6 @@
     <t>wmap</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -459,9 +592,6 @@
   </si>
   <si>
     <t>‒</t>
-  </si>
-  <si>
-    <t>ctime</t>
   </si>
   <si>
     <t>datetime</t>
@@ -476,13 +606,7 @@
     <t>strptime</t>
   </si>
   <si>
-    <t>mtime</t>
-  </si>
-  <si>
     <t>Modified</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>boolean</t>
@@ -498,6 +622,9 @@
   </si>
   <si>
     <t>journal</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>Title</t>
@@ -617,12 +744,6 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>genus</t>
   </si>
   <si>
@@ -728,9 +849,6 @@
     <t>placeholder</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Actief</t>
   </si>
   <si>
@@ -830,9 +948,6 @@
     <t>input.type=url</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -879,11 +994,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -930,10 +1046,47 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF33CC66"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF33CC66"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF6633"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFFF6633"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF33CC66"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1108,7 +1261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1157,35 +1310,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,39 +1450,39 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,18 +1546,18 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFDD4814"/>
+      <rgbColor rgb="FFFF6633"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFDD4814"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1374,15 +1571,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1391,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2404440" y="1341360"/>
-          <a:ext cx="2106720" cy="4680"/>
+          <a:off x="2431440" y="1332360"/>
+          <a:ext cx="2116080" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1417,15 +1614,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1434,8 +1631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2426040" y="568080"/>
-          <a:ext cx="2085120" cy="360"/>
+          <a:off x="2453040" y="559080"/>
+          <a:ext cx="2094480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1460,15 +1657,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>208440</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1477,8 +1674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5484960" y="1150200"/>
-          <a:ext cx="1850400" cy="1080"/>
+          <a:off x="5521680" y="1141200"/>
+          <a:ext cx="1859760" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1503,15 +1700,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>210240</xdr:colOff>
+      <xdr:colOff>237240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1520,8 +1717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2419920" y="2667600"/>
-          <a:ext cx="2091240" cy="1080"/>
+          <a:off x="2446920" y="2658600"/>
+          <a:ext cx="2100600" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1546,15 +1743,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1563,8 +1760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5491080" y="758520"/>
-          <a:ext cx="1844280" cy="360"/>
+          <a:off x="5527800" y="749520"/>
+          <a:ext cx="1853640" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1589,15 +1786,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>240480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1606,8 +1803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423160" y="2277720"/>
-          <a:ext cx="2088000" cy="3960"/>
+          <a:off x="2450160" y="2268720"/>
+          <a:ext cx="2097360" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1632,15 +1829,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1649,8 +1846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2420640" y="3027600"/>
-          <a:ext cx="2090520" cy="1440"/>
+          <a:off x="2447640" y="3018600"/>
+          <a:ext cx="2099880" cy="1440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1675,15 +1872,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>221400</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1692,8 +1889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5499360" y="3234240"/>
-          <a:ext cx="1846440" cy="0"/>
+          <a:off x="5536080" y="3225240"/>
+          <a:ext cx="1855800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1718,15 +1915,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,8 +1932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5507280" y="3604680"/>
-          <a:ext cx="1833480" cy="720"/>
+          <a:off x="5544000" y="3595680"/>
+          <a:ext cx="1842840" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1761,15 +1958,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>234000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1778,8 +1975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2416680" y="3806280"/>
-          <a:ext cx="2089440" cy="4320"/>
+          <a:off x="2443680" y="3797280"/>
+          <a:ext cx="2098800" cy="4320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1804,15 +2001,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>775440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
+      <xdr:colOff>780480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1821,7 +2018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1738800" y="4662720"/>
+          <a:off x="1765800" y="4653720"/>
           <a:ext cx="5040" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1847,15 +2044,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>857520</xdr:colOff>
+      <xdr:colOff>884520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1864,7 +2061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400480" y="4563000"/>
+          <a:off x="2427480" y="4554000"/>
           <a:ext cx="666720" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1890,15 +2087,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>858240</xdr:colOff>
+      <xdr:colOff>885240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1907,7 +2104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2431440" y="5318640"/>
+          <a:off x="2458440" y="5309640"/>
           <a:ext cx="636480" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1932,15 +2129,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>851400</xdr:colOff>
+      <xdr:colOff>878400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>851400</xdr:colOff>
+      <xdr:colOff>878400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1949,7 +2146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3061080" y="4573080"/>
+          <a:off x="3088080" y="4564080"/>
           <a:ext cx="0" cy="751680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1974,15 +2171,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
+      <xdr:colOff>238680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>233280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1991,8 +2188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2421360" y="5510160"/>
-          <a:ext cx="2090160" cy="0"/>
+          <a:off x="2448360" y="5501160"/>
+          <a:ext cx="2099520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2017,15 +2214,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2034,8 +2231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5503680" y="5700240"/>
-          <a:ext cx="1837080" cy="5760"/>
+          <a:off x="5540400" y="5691240"/>
+          <a:ext cx="1846440" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2060,15 +2257,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2077,8 +2274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5491800" y="6091560"/>
-          <a:ext cx="1838520" cy="5760"/>
+          <a:off x="5528520" y="6082560"/>
+          <a:ext cx="1847880" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2103,15 +2300,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2120,8 +2317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2436480" y="6276600"/>
-          <a:ext cx="2074680" cy="720"/>
+          <a:off x="2463480" y="6267600"/>
+          <a:ext cx="2084040" cy="720"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2163,11 +2360,11 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -28985,334 +29182,376 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9109311740891"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.30364372469636"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.6275303643725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.61943319838057"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+        <v>39</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="0"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="0"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="0"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="0"/>
+      <c r="F7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="0"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="0"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="0"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="0"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="0"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
       <c r="B23" s="0"/>
       <c r="C23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -29328,6 +29567,378 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.0728744939271"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0161943319838"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>7199</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>7199</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>33560</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>33560</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>42532.6109490741</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>42532.6109490741</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="20" t="n">
+        <v>42532.6163773148</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>42532.6109606482</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
@@ -29338,68 +29949,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -29409,198 +30020,198 @@
     </row>
     <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="5" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="5" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>79</v>
+        <v>138</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="5" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>145</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="5" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>79</v>
+        <v>150</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>79</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="5" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -29609,23 +30220,23 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>79</v>
+        <v>158</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -29639,7 +30250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -29653,7 +30264,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
@@ -29665,103 +30276,103 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="0"/>
-      <c r="D1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="D1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="0"/>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13"/>
+      <c r="G1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="24"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="15"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="13"/>
+      <c r="A3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="13"/>
+      <c r="D3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="24"/>
       <c r="F3" s="0"/>
-      <c r="G3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>117</v>
+      <c r="G3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>119</v>
+      <c r="D4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>122</v>
+      <c r="A5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -29769,18 +30380,18 @@
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
+      <c r="D6" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="F6" s="0"/>
-      <c r="G6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>125</v>
+      <c r="G6" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -29796,90 +30407,90 @@
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="24"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>127</v>
+      <c r="D9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>127</v>
+      <c r="A10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>125</v>
+      <c r="D11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -29903,7 +30514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -29918,755 +30529,755 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="20" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="31" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="2" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="20" min="16" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>139</v>
+      <c r="A1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D2,", ...)")</f>
+      <c r="A2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D2,", ...)")</f>
         <v>Field(Id, ...)</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>143</v>
+      <c r="I2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D3,", ...)")</f>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D3,", ...)")</f>
         <v>Field(Created, ...)</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>143</v>
+      <c r="I3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D4,", ...)")</f>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D4,", ...)")</f>
         <v>Field(Modified, ...)</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>143</v>
+      <c r="I4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D5,", ...)")</f>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D5,", ...)")</f>
         <v>Field(Active, ...)</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>143</v>
+      <c r="I5" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D6,", ...)")</f>
+      <c r="A6" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D6,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>143</v>
+      <c r="I6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D7,", ...)")</f>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D7,", ...)")</f>
         <v>Field(ISSN, ...)</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>143</v>
+      <c r="I7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="26" t="str">
-        <f aca="false">CONCATENATE("Field(",$D8,", ...)")</f>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="37" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D8,", ...)")</f>
         <v>Field(Volume, ...)</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>143</v>
+      <c r="I8" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D9,", ...)")</f>
+      <c r="A9" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D9,", ...)")</f>
         <v>Field(VolumeId, ...)</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>143</v>
+      <c r="I9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D10,", ...)")</f>
+        <v>Field(Year, ...)</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D10,", ...)")</f>
-        <v>Field(Year, ...)</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>143</v>
+      <c r="N10" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="26" t="str">
-        <f aca="false">CONCATENATE("Field(",$D11,", ...)")</f>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="37" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D11,", ...)")</f>
         <v>Field(Issue, ...)</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>143</v>
+      <c r="I11" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D12,", ...)")</f>
+      <c r="A12" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D12,", ...)")</f>
         <v>Field(IssueId, ...)</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>143</v>
+      <c r="I12" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D13,", ...)")</f>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D13,", ...)")</f>
         <v>Field(PublicationDate, ...)</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>143</v>
+      <c r="I13" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="H14" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D14,", ...)")</f>
+        <v>Field(Article, ...)</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D14,", ...)")</f>
-        <v>Field(Article, ...)</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>190</v>
+      <c r="K14" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D15,", ...)")</f>
+      <c r="A15" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D15,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>143</v>
+      <c r="I15" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f aca="false">CONCATENATE("Field(",$D16,", ...)")</f>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="34" t="str">
+        <f aca="false">CONCATENATE("Field(",model!$D16,", ...)")</f>
         <v>Field(ArticleId, ...)</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>143</v>
+      <c r="I16" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30675,8 +31286,8 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="F17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -30684,76 +31295,76 @@
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="F18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="A19" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30771,7 +31382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -30792,420 +31403,420 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="8" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.1781376518219"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>207</v>
+      <c r="A1" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="33"/>
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="33"/>
+      <c r="A3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>217</v>
+      <c r="A4" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>213</v>
+      <c r="A5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="M6" s="33"/>
+      <c r="A6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>220</v>
+      <c r="A7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="33"/>
+      <c r="A8" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="33"/>
+      <c r="A9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="33"/>
+      <c r="A10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="33"/>
+      <c r="A11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
@@ -31227,24 +31838,24 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="5" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -31258,170 +31869,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.12145748987854"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21862348178138"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.61133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4331983805668"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2307692307692"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.51417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>232</v>
+      <c r="A1" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>272</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="42" t="n">
+      <c r="A3" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="53" t="n">
         <v>42625</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
-        <v>240</v>
+      <c r="C3" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
+        <v>279</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
-        <v>244</v>
+      <c r="A4" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
+        <v>283</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="s">
-        <v>249</v>
+      <c r="A5" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
+        <v>288</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="43" t="n">
+      <c r="A6" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="44" t="n">
+      <c r="C6" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="55" t="n">
         <v>123</v>
       </c>
       <c r="I6" s="5"/>
@@ -31429,177 +32040,177 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="A8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="40"/>
+      <c r="A9" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="51"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="42" t="n">
+      <c r="A10" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="53" t="n">
         <v>0.480555555555556</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40" t="s">
-        <v>262</v>
+      <c r="C10" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>301</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="A11" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
-        <v>232</v>
+      <c r="A13" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49" t="s">
+        <v>272</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="43" t="n">
+      <c r="A14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="C14" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -31620,11 +32231,11 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>120</v>
+      <c r="E16" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -31633,11 +32244,11 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>271</v>
+      <c r="E17" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -31651,7 +32262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -31664,24 +32275,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>275</v>
+      <c r="A1" s="56"/>
+      <c r="B1" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>313</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -31689,20 +32300,20 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="25.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>279</v>
+      <c r="A2" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -31710,20 +32321,20 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>143</v>
+      <c r="A3" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,1124 +18,1176 @@
     <sheet name="controller" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="pruning" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="composite_render_tree" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="query" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="369">
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>semantics</t>
-  </si>
-  <si>
-    <t>render tree</t>
-  </si>
-  <si>
-    <t>dict</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>success, fail, error</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>0, 1, ...</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>PUT, ...</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>can be filled by plugins</t>
-  </si>
-  <si>
-    <t>cursor</t>
-  </si>
-  <si>
-    <t>{'skip':0, 'limit':10, 'incl':0, ...}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>[decorated]</t>
-  </si>
-  <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>[button]</t>
-  </si>
-  <si>
-    <t>panel buttons</t>
-  </si>
-  <si>
-    <t>decorated</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>row in grid (index, search)</t>
-  </si>
-  <si>
-    <t>item buttons</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>prefix, may be empty</t>
-  </si>
-  <si>
-    <t>ordered dict</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>string | reference</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>proplist</t>
-  </si>
-  <si>
-    <t>metadata for field; add_item: empty; flatten_item: populated</t>
-  </si>
-  <si>
-    <t>field buttons</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>tuple</t>
-  </si>
-  <si>
-    <t>(prefix, infix, url, postfix)</t>
-  </si>
-  <si>
-    <t>{'label':label, 'formtype':'string', ...}</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>(label, icon, action, method)</t>
-  </si>
-  <si>
-    <t>GET or POST: button (label, icon, size=small)</t>
-  </si>
-  <si>
-    <t>DELETE: delete button (same, with JS)</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>formtype</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>flattened</t>
-  </si>
-  <si>
-    <t>pruned</t>
-  </si>
-  <si>
-    <t>Voornaam</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>Johannes Christiaan</t>
-  </si>
-  <si>
-    <t>Tussen</t>
-  </si>
-  <si>
-    <t>Achternaam</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Poppelier</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>birthplace</t>
-  </si>
-  <si>
-    <t>Oosterhout</t>
-  </si>
-  <si>
-    <t>deathdate</t>
-  </si>
-  <si>
-    <t>deathplace</t>
-  </si>
-  <si>
-    <t>Eskilstuna</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>FamilyRef(Family, ...)</t>
-  </si>
-  <si>
-    <t>('Nicolaas ... x Pietronella ...', '/family/...')</t>
-  </si>
-  <si>
-    <t>[Huwelijken]</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>marriages</t>
-  </si>
-  <si>
-    <t>[FamilyRef(Family, ...), FamilyRef(Family, ...)]</t>
-  </si>
-  <si>
-    <t>marriages.0</t>
-  </si>
-  <si>
-    <t>('Johannes ... x Josephina ...', '/family/...')</t>
-  </si>
-  <si>
-    <t>Huwelijken</t>
-  </si>
-  <si>
-    <t>marriages.1</t>
-  </si>
-  <si>
-    <t>('Johannes ... x Eline ...', '/family/...')</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>[Opmerkingen]</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>notes.0</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>Opmerkingen</t>
-  </si>
-  <si>
-    <t>[Bronnen]</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>sources.0</t>
-  </si>
-  <si>
-    <t>Bronnen</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>575c0692e842790d2a631d2e</t>
-  </si>
-  <si>
-    <t>ctime</t>
-  </si>
-  <si>
-    <t>mtime</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>flatten [] -&gt; label:''</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>unflatten label:'' -&gt; []</t>
-  </si>
-  <si>
-    <t>non-atomic</t>
-  </si>
-  <si>
-    <t>view method</t>
-  </si>
-  <si>
-    <t>request (path)</t>
-  </si>
-  <si>
-    <t>request (form)</t>
-  </si>
-  <si>
-    <t>form processing (out)</t>
-  </si>
-  <si>
-    <t>model action</t>
-  </si>
-  <si>
-    <t>grid buttons</t>
-  </si>
-  <si>
-    <t>form buttons</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>object id</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>item.find_one</t>
-  </si>
-  <si>
-    <t>index, modify, delete</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>cursor + bquery</t>
-  </si>
-  <si>
-    <t>cursor' + bquery'</t>
-  </si>
-  <si>
-    <t>item.find</t>
-  </si>
-  <si>
-    <t>new, import</t>
-  </si>
-  <si>
-    <t>show, modify, delete</t>
-  </si>
-  <si>
-    <t>item list</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>form for search</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>cursor + bquery + equery</t>
-  </si>
-  <si>
-    <t>cursor' + bquery' + equery</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>item.lookup</t>
-  </si>
-  <si>
-    <t>OK, Cancel</t>
-  </si>
-  <si>
-    <t>form for update</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>form with modified fields</t>
-  </si>
-  <si>
-    <t>doc for item update</t>
-  </si>
-  <si>
-    <t>item.write</t>
-  </si>
-  <si>
-    <t>item (modified)</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>form for create</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>form with new fields</t>
-  </si>
-  <si>
-    <t>doc for item insert</t>
-  </si>
-  <si>
-    <t>item (created)</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>item.delete</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>list of doc's for item insert</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>Python object</t>
-  </si>
-  <si>
-    <t>rendering document</t>
-  </si>
-  <si>
-    <t>ItemRef</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>'Person'</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>'123456708'</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>'Adrianus van Dongen'</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>convert</t>
-  </si>
-  <si>
-    <t>←</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>field path</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>rmap</t>
-  </si>
-  <si>
-    <t>dmap</t>
-  </si>
-  <si>
-    <t>cmap</t>
-  </si>
-  <si>
-    <t>wmap</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>‒</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>strftime</t>
-  </si>
-  <si>
-    <t>strptime</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>bool2str</t>
-  </si>
-  <si>
-    <t>str2bool</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>issn</t>
-  </si>
-  <si>
-    <t>ISSN</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>_volume</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>&lt;recursion&gt;</t>
-  </si>
-  <si>
-    <t>volumeid</t>
-  </si>
-  <si>
-    <t>VolumeId</t>
-  </si>
-  <si>
-    <t>volume.volumeid</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>volume.year</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>issue</t>
-  </si>
-  <si>
-    <t>_issue</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>volume.issue</t>
-  </si>
-  <si>
-    <t>issueid</t>
-  </si>
-  <si>
-    <t>IssueId</t>
-  </si>
-  <si>
-    <t>volume.issue.issueid</t>
-  </si>
-  <si>
-    <t>pubdate</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>PublicationDate</t>
-  </si>
-  <si>
-    <t>volume.issue.pubdate</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>^article</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>volume.issue.article</t>
-  </si>
-  <si>
-    <t>article_ref</t>
-  </si>
-  <si>
-    <t>str2ref</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>ref2str</t>
-  </si>
-  <si>
-    <t>articleid</t>
-  </si>
-  <si>
-    <t>ArticleId</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>button type=button</t>
-  </si>
-  <si>
-    <t>btn-default enabled</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>btn-default disabled</t>
-  </si>
-  <si>
-    <t>toggle, prompt</t>
-  </si>
-  <si>
-    <t>JS availability is undetectable!</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>button type=submit</t>
-  </si>
-  <si>
-    <t>not used in practice</t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>btn-sm enabled</t>
-  </si>
-  <si>
-    <t>btn-sm disabled</t>
-  </si>
-  <si>
-    <t>page top hook</t>
-  </si>
-  <si>
-    <t>include bootbox.js</t>
-  </si>
-  <si>
-    <t>page bottom hook</t>
-  </si>
-  <si>
-    <t>snippet for registering event handler</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>Actief</t>
-  </si>
-  <si>
-    <t>False, True</t>
-  </si>
-  <si>
-    <t>nee, ja</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>Geb.datum</t>
-  </si>
-  <si>
-    <t>2016-09-12T11:32:00</t>
-  </si>
-  <si>
-    <t>Gemaakt op</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>Getal</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Leeftijd</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>formatted text</t>
-  </si>
-  <si>
-    <t>textarea</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Notities</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Duur</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>www.bhic.nl</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>0, 1, 2</t>
-  </si>
-  <si>
-    <t>unknown, female, male</t>
-  </si>
-  <si>
-    <t>extensions for form</t>
-  </si>
-  <si>
-    <t>query 1</t>
-  </si>
-  <si>
-    <t>query 2</t>
-  </si>
-  <si>
-    <t>query 3 (MongoDB)</t>
-  </si>
-  <si>
-    <t>unflattened</t>
-  </si>
-  <si>
-    <t>"Johannes Christiaan"</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>$regex</t>
-  </si>
-  <si>
-    <t>"16-9-1919"</t>
-  </si>
-  <si>
-    <t>date(16-9-1919)</t>
-  </si>
-  <si>
-    <t>eq</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>1919</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>$gte, $lte</t>
-  </si>
-  <si>
-    <t>"Oosterhout"</t>
-  </si>
-  <si>
-    <t>"Eskilstuna"</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
-    <t>item added</t>
-  </si>
-  <si>
-    <t>“Joannes Cornelius Antonius”</t>
-  </si>
-  <si>
-    <t>“Poppelier”</t>
-  </si>
-  <si>
-    <t>“21-12-1962”</t>
-  </si>
-  <si>
-    <t>"IJsselstein”</t>
-  </si>
-  <si>
-    <t>"onbekend”</t>
-  </si>
-  <si>
-    <t>add button</t>
-  </si>
-  <si>
-    <t>remove button</t>
-  </si>
-  <si>
-    <t>[“getrouwd Doetinchem 1989 ...”,</t>
-  </si>
-  <si>
-    <t>length=3</t>
-  </si>
-  <si>
-    <t>“getrouwd Doetinchem 1989 ...”</t>
-  </si>
-  <si>
-    <t>“partner C.H.A. Peters ...”,</t>
-  </si>
-  <si>
-    <t>notes.1</t>
-  </si>
-  <si>
-    <t>“partner C.H.A. Peters ...”</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>“kinderen Chantal ...”]</t>
-  </si>
-  <si>
-    <t>notes.2</t>
-  </si>
-  <si>
-    <t>“kinderen Chantal ...”</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>page mode</t>
-  </si>
-  <si>
-    <t>fragment mode</t>
-  </si>
-  <si>
-    <t>xml mode</t>
-  </si>
-  <si>
-    <t>json mode</t>
-  </si>
-  <si>
-    <t>serialize</t>
-  </si>
-  <si>
-    <t>render with template given by render tree</t>
-  </si>
-  <si>
-    <t>convert to XML</t>
-  </si>
-  <si>
-    <t>encode_dict</t>
-  </si>
-  <si>
-    <t>finalize</t>
-  </si>
-  <si>
-    <t>render with site template</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>bool enum date time</t>
-  </si>
-  <si>
-    <t>int float string</t>
-  </si>
-  <si>
-    <t>text memo</t>
-  </si>
-  <si>
-    <t>itemref</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>show item</t>
-  </si>
-  <si>
-    <t>incl</t>
-  </si>
-  <si>
-    <t>incl [1]</t>
-  </si>
-  <si>
-    <t>update item</t>
-  </si>
-  <si>
-    <t>excl [2]</t>
-  </si>
-  <si>
-    <t>incl [3]</t>
-  </si>
-  <si>
-    <t>show collection</t>
-  </si>
-  <si>
-    <t>excl</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>mark auto=True in metadata</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>formtype=ref, wait for JS extension</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>mark auto=True in metadata, formtype=hidden</t>
-  </si>
-  <si>
-    <t>Petrus</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>Leestmans</t>
-  </si>
-  <si>
-    <t>Cornelius Poppelier</t>
-  </si>
-  <si>
-    <t>Margarita de Vos</t>
-  </si>
-  <si>
-    <t>Francijna</t>
-  </si>
-  <si>
-    <t>Petronilla</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Johannes</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Cornelia</t>
-  </si>
-  <si>
-    <t>Cornelius</t>
-  </si>
-  <si>
-    <t>Christianus</t>
-  </si>
-  <si>
-    <t>Margarita de Vos 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="386">
+  <si>
+    <t xml:space="preserve">component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semantics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">render tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success, fail, error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be filled by plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'skip':0, 'limit':10, 'incl':0, ...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[decorated]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[button]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decorated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row in grid (index, search)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix, may be empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordered dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string | reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proplist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadata for field; add_item: empty; flatten_item: populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(prefix, infix, url, postfix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'label':label, 'formtype':'string', ...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(label, icon, action, method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET or POST: button (label, icon, size=small)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE: delete button (same, with JS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flattened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voornaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Christiaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achternaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poppelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oosterhout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deathdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deathplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eskilstuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyRef(Family, ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Nicolaas ... x Pietronella ...', '/family/...')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Huwelijken]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[FamilyRef(Family, ...), FamilyRef(Family, ...)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriages.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Johannes ... x Josephina ...', '/family/...')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huwelijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriages.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('Johannes ... x Eline ...', '/family/...')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Opmerkingen]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opmerkingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Bronnen]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">575c0692e842790d2a631d2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatten [] -&gt; label:''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unflatten label:'' -&gt; []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-atomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request (path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request (form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form processing (out)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item.find_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index, modify, delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursor + bquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursor' + bquery'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item.find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new, import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show, modify, delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form for search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursor + bquery + equery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cursor' + bquery' + equery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item.lookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form for update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form with modified fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc for item update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item.write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item (modified)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form for create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form with new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc for item insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item (created)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of doc's for item insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rendering document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Person'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'123456708'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Adrianus van Dongen'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">←</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strftime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool2str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str2bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;recursion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volumeid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VolumeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.volumeid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issueid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.issue.issueid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PublicationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.issue.pubdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume.issue.article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str2ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref2str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">articleid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button type=button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn-default enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn-default disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle, prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS availability is undetectable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button type=submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not used in practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn-sm enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn-sm disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page top hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include bootbox.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page bottom hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snippet for registering event handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False, True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nee, ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geb.datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-09-12T11:32:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemaakt op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeftijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formatted text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.bhic.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown, female, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extensions for form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query 3 (MongoDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unflattened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Johannes Christiaan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"16-9-1919"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date(16-9-1919)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$gte, $lte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Oosterhout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Eskilstuna"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Joannes Cornelius Antonius”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Poppelier”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“21-12-1962”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"IJsselstein”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"onbekend”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[“getrouwd Doetinchem 1989 ...”,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“getrouwd Doetinchem 1989 ...”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“partner C.H.A. Peters ...”,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“partner C.H.A. Peters ...”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“kinderen Chantal ...”]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“kinderen Chantal ...”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fragment mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xml mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">render with template given by render tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert to XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encode_dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">render with site template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool enum date time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int float string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itemref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incl [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excl [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incl [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark auto=True in metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formtype=ref, wait for JS extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark auto=True in metadata, formtype=hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leestmans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelius Poppelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarita de Vos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francijna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petronilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christianus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarita de Vos 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value (=tuple)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'firstname’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'==’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'lastname’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'birthdate||deathdate’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date, date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'$or’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{‘birthdate’:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthdate},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{‘deathdate’:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deathdate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'[]’</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
@@ -1175,28 +1227,19 @@
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0047FF"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF0047FF"/>
+      <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
@@ -1214,14 +1257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0047FF"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1316,6 +1351,14 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1433,6 +1476,14 @@
       <sz val="11"/>
       <color rgb="FF6B4794"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1572,7 +1623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1617,6 +1668,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1625,15 +1680,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1641,23 +1708,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,16 +1716,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1689,15 +1740,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1705,19 +1756,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1729,11 +1776,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1765,15 +1812,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,12 +1836,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1809,19 +1860,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1837,23 +1884,27 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1861,23 +1912,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1960,8 +2015,8 @@
   </sheetPr>
   <dimension ref="1:30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1969,8 +2024,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.1336032388664"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="16.497975708502"/>
@@ -1981,9 +2036,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0"/>
@@ -3010,16 +3066,16 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="0"/>
@@ -4043,13 +4099,15 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="0"/>
@@ -5073,13 +5131,15 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="0"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -6101,17 +6161,19 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
@@ -7129,19 +7191,21 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
@@ -8159,19 +8223,21 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -9189,13 +9255,15 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="0"/>
@@ -10219,17 +10287,19 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
@@ -11247,13 +11317,15 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="0"/>
@@ -12277,9 +12349,11 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -13304,16 +13378,16 @@
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="0"/>
@@ -14337,13 +14411,15 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="0"/>
@@ -15367,13 +15443,15 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="0"/>
@@ -16397,9 +16475,11 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -17424,16 +17504,16 @@
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="0"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -18455,13 +18535,15 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="0"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -19483,18 +19565,20 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="0"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
@@ -20511,14 +20595,16 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -21534,25 +21620,25 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="0"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
@@ -22570,20 +22656,21 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
@@ -23600,13 +23687,15 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="0"/>
@@ -24630,13 +24719,15 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -25654,22 +25745,22 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
@@ -26686,16 +26777,16 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -27712,15 +27803,15 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="0"/>
@@ -28744,10 +28835,11 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -29769,15 +29861,15 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="0"/>
@@ -30800,9 +30892,9 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="E29" s="5" t="s">
+    <row r="29" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="0"/>
@@ -30811,10 +30903,11 @@
       <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="5" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="0"/>
@@ -30852,263 +30945,263 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
+      <c r="A1" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="75" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="75" t="s">
         <v>63</v>
       </c>
     </row>
@@ -31127,6 +31220,378 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"DejaVu Sans,Book"&amp;9&amp;A</oddHeader>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9109311740891"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.08502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="G1" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="G2" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="G3" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="77" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="G14" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="G15" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="G16" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="77" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C19:E19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -31148,11 +31613,11 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.1417004048583"/>
@@ -31160,551 +31625,551 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="18" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="22" t="n">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="13"/>
+      <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="14" t="n">
         <v>1772</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="14" t="n">
         <v>1772</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="14" t="n">
         <v>1772</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="23" t="n">
         <v>42532.6109490741</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="23" t="n">
         <v>42532.6109490741</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="25"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="23" t="n">
         <v>42532.6163773148</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="23" t="n">
         <v>42532.6109606482</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31734,47 +32199,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -31785,10 +32250,10 @@
       <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -31807,7 +32272,7 @@
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -31834,16 +32299,16 @@
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="0"/>
@@ -31859,7 +32324,7 @@
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -31889,10 +32354,10 @@
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -31911,7 +32376,7 @@
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -31936,16 +32401,16 @@
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>117</v>
       </c>
       <c r="F8" s="0"/>
@@ -31961,7 +32426,7 @@
       <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -31989,10 +32454,10 @@
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -32004,23 +32469,23 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32048,115 +32513,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="0"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="0"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="32"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="H2" s="32"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="0"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="32" t="s">
         <v>161</v>
       </c>
       <c r="I5" s="0"/>
@@ -32165,17 +32630,17 @@
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="0"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="32" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="0"/>
@@ -32192,89 +32657,89 @@
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -32315,757 +32780,757 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="37" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="38" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="38" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="38" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="36" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="37" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="37" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="37" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="16" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="41" t="str">
+      <c r="H2" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D2,", ...)")</f>
         <v>Field(Id, ...)</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="41" t="str">
+      <c r="H3" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D3,", ...)")</f>
         <v>Field(Created, ...)</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="41" t="str">
+      <c r="H4" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D4,", ...)")</f>
         <v>Field(Modified, ...)</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="41" t="str">
+      <c r="H5" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D5,", ...)")</f>
         <v>Field(Active, ...)</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="41" t="str">
+      <c r="H6" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D6,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="41" t="str">
+      <c r="H7" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D7,", ...)")</f>
         <v>Field(ISSN, ...)</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="43" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D8,", ...)")</f>
         <v>Field(Volume, ...)</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="41" t="str">
+      <c r="H9" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D9,", ...)")</f>
         <v>Field(VolumeId, ...)</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D10,", ...)")</f>
         <v>Field(Year, ...)</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="44" t="str">
+      <c r="H11" s="43" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D11,", ...)")</f>
         <v>Field(Issue, ...)</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D12,", ...)")</f>
         <v>Field(IssueId, ...)</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="41" t="str">
+      <c r="H13" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D13,", ...)")</f>
         <v>Field(PublicationDate, ...)</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="H14" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D14,", ...)")</f>
         <v>Field(Article, ...)</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="41" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="41" t="str">
+      <c r="H15" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D15,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="41" t="str">
+      <c r="H16" s="40" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D16,", ...)")</f>
         <v>Field(ArticleId, ...)</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="41" t="s">
         <v>180</v>
       </c>
     </row>
@@ -33075,8 +33540,8 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="F17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -33084,76 +33549,76 @@
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="F18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="46"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="46"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="46"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="46"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="46"/>
+      <c r="K24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33188,424 +33653,424 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="12" min="8" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="52" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="51" t="s">
         <v>243</v>
       </c>
       <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="53" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="51"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M9" s="51"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
@@ -33614,7 +34079,7 @@
       <c r="M12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -33660,350 +34125,350 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="56"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="60" t="n">
+      <c r="B3" s="59" t="n">
         <v>42625</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61" t="n">
+      <c r="B6" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="60" t="n">
+      <c r="B10" s="59" t="n">
         <v>0.480555555555556</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="61" t="n">
+      <c r="B14" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
     </row>
@@ -34025,13 +34490,13 @@
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -34042,13 +34507,13 @@
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="58"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -34068,42 +34533,42 @@
       <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B19" s="0"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="26" t="s">
         <v>289</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="26" t="s">
         <v>290</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="26" t="s">
         <v>291</v>
       </c>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="0"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="26" t="s">
         <v>292</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="26" t="s">
         <v>292</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="26" t="s">
         <v>292</v>
       </c>
       <c r="J20" s="0"/>
@@ -34113,13 +34578,13 @@
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>293</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>293</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -34128,7 +34593,7 @@
       <c r="F21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="62" t="s">
         <v>293</v>
       </c>
       <c r="H21" s="0"/>
@@ -34138,7 +34603,7 @@
       <c r="J21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="62" t="s">
         <v>293</v>
       </c>
     </row>
@@ -34146,55 +34611,55 @@
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="0"/>
-      <c r="G22" s="63"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="0"/>
       <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="0"/>
-      <c r="K22" s="63"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="0"/>
-      <c r="G23" s="63"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="0"/>
       <c r="I23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J23" s="0"/>
-      <c r="K23" s="63"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>296</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>297</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -34203,7 +34668,7 @@
       <c r="F24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="63" t="s">
         <v>297</v>
       </c>
       <c r="H24" s="0"/>
@@ -34213,7 +34678,7 @@
       <c r="J24" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="K24" s="63" t="s">
         <v>297</v>
       </c>
     </row>
@@ -34221,20 +34686,20 @@
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
         <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G25" s="64" t="n">
+      <c r="G25" s="63" t="n">
         <v>1919</v>
       </c>
       <c r="H25" s="0"/>
@@ -34244,7 +34709,7 @@
       <c r="J25" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K25" s="64" t="n">
+      <c r="K25" s="63" t="n">
         <v>1919</v>
       </c>
     </row>
@@ -34252,13 +34717,13 @@
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>303</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="62" t="s">
         <v>303</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -34267,7 +34732,7 @@
       <c r="F26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="62" t="s">
         <v>303</v>
       </c>
       <c r="H26" s="0"/>
@@ -34277,7 +34742,7 @@
       <c r="J26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="62" t="s">
         <v>303</v>
       </c>
     </row>
@@ -34285,34 +34750,34 @@
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="0"/>
-      <c r="G27" s="64"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="0"/>
       <c r="I27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J27" s="0"/>
-      <c r="K27" s="64"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="62" t="s">
         <v>304</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -34321,7 +34786,7 @@
       <c r="F28" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="62" t="s">
         <v>304</v>
       </c>
       <c r="H28" s="0"/>
@@ -34331,7 +34796,7 @@
       <c r="J28" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="62" t="s">
         <v>304</v>
       </c>
     </row>
@@ -34339,13 +34804,13 @@
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>305</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="63" t="n">
+      <c r="D29" s="62" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -34354,7 +34819,7 @@
       <c r="F29" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G29" s="63" t="n">
+      <c r="G29" s="62" t="n">
         <v>2</v>
       </c>
       <c r="H29" s="0"/>
@@ -34364,7 +34829,7 @@
       <c r="J29" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K29" s="63" t="n">
+      <c r="K29" s="62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34387,7 +34852,7 @@
       <c r="H31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B32" s="0"/>
@@ -34398,12 +34863,12 @@
       <c r="H32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="26" t="s">
         <v>306</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F33" s="0"/>
@@ -34414,14 +34879,14 @@
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>307</v>
       </c>
       <c r="C34" s="0"/>
       <c r="E34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="62" t="s">
         <v>307</v>
       </c>
       <c r="G34" s="0"/>
@@ -34431,12 +34896,12 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="0"/>
       <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
     </row>
@@ -34444,14 +34909,14 @@
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>308</v>
       </c>
       <c r="C36" s="0"/>
       <c r="E36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="62" t="s">
         <v>308</v>
       </c>
       <c r="G36" s="0"/>
@@ -34461,14 +34926,14 @@
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>309</v>
       </c>
       <c r="C37" s="0"/>
       <c r="E37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="63" t="s">
         <v>309</v>
       </c>
       <c r="G37" s="0"/>
@@ -34478,14 +34943,14 @@
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>310</v>
       </c>
       <c r="C38" s="0"/>
       <c r="E38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="62" t="s">
         <v>310</v>
       </c>
       <c r="G38" s="0"/>
@@ -34495,14 +34960,14 @@
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>311</v>
       </c>
       <c r="C39" s="0"/>
       <c r="E39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="62" t="s">
         <v>311</v>
       </c>
       <c r="G39" s="0"/>
@@ -34512,22 +34977,22 @@
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="26" t="s">
         <v>313</v>
       </c>
     </row>
@@ -34588,13 +35053,13 @@
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="63" t="n">
+      <c r="B44" s="62" t="n">
         <v>1902</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="63" t="n">
+      <c r="F44" s="62" t="n">
         <v>1902</v>
       </c>
     </row>
@@ -34623,73 +35088,73 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34715,145 +35180,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="65" t="n">
+      <c r="G2" s="64" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="G3" s="65" t="n">
+      <c r="G3" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="G4" s="65" t="n">
+      <c r="G4" s="64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">PUT, ...</t>
   </si>
   <si>
-    <t xml:space="preserve">info</t>
+    <t xml:space="preserve">computed</t>
   </si>
   <si>
     <t xml:space="preserve">can be filled by plugins</t>
@@ -1196,7 +1196,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
   <fonts count="39">
@@ -1623,7 +1623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1928,11 +1928,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2013,23 +2017,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:30"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30916,7 +30920,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.944444444444444" bottom="0.747916666666667" header="0.747916666666667" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter/>
@@ -30931,17 +30935,17 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31216,9 +31220,9 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.01111111111111" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Sans,Book"&amp;9&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"DejaVu Sans,Boek"&amp;9&amp;A</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>
@@ -31231,18 +31235,18 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9109311740891"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.08502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31324,11 +31328,11 @@
       <c r="B6" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="G6" s="12" t="s">
         <v>170</v>
       </c>
@@ -31491,11 +31495,11 @@
       <c r="B19" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="G19" s="12" t="s">
         <v>170</v>
       </c>
@@ -31588,7 +31592,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
@@ -31603,25 +31607,25 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32178,7 +32182,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -32193,25 +32197,25 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32492,7 +32496,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter/>
@@ -32507,22 +32511,22 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.35627530364373"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32756,7 +32760,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -32771,28 +32775,28 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="36" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="37" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="37" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="37" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="36" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="37" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33628,7 +33632,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -33643,22 +33647,22 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.3886639676113"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="5.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34103,7 +34107,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -34118,24 +34122,24 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35066,7 +35070,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -35081,18 +35085,18 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35159,7 +35163,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -35174,19 +35178,19 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35328,7 +35332,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter/>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,10 @@
     <sheet name="references" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="buttons" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="form" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="controller" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="pruning" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="composite_render_tree" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="form_structure" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="form_handling" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="controller" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="pruning" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="query" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="396">
   <si>
     <t xml:space="preserve">component</t>
   </si>
@@ -1007,6 +1007,78 @@
     <t xml:space="preserve">+</t>
   </si>
   <si>
+    <t xml:space="preserve">preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add empty item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add item[id=objectid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add another item (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create (initial), route='create', initial=True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create (repost), route='create', initial=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update (initial), route='update', initial=True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update (repost), route='update', initial=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item[0] from form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item[1] from form, using prefix (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post-processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style=0 if initial else 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message='' if initial else validation['data']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add form buttons(route)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needs item[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatten item(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prune item (depth=2, clear=T, form=T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prune item (depth=2, clear=F, form=T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear = route==create</t>
+  </si>
+  <si>
     <t xml:space="preserve">page mode</t>
   </si>
   <si>
@@ -1095,48 +1167,6 @@
   </si>
   <si>
     <t xml:space="preserve">mark auto=True in metadata, formtype=hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leestmans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornelius Poppelier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarita de Vos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francijna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petronilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornelia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornelius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christianus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarita de Vos 2</t>
   </si>
   <si>
     <t xml:space="preserve">key</t>
@@ -1199,7 +1229,7 @@
     <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1225,14 +1255,14 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF0047FF"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1240,7 +1270,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1255,8 +1285,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0047FF"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0047FF"/>
+      <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1270,7 +1307,7 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF0047FF"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1285,30 +1322,22 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF33CC66"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1316,14 +1345,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF33CC66"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1331,7 +1360,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FFFF6633"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1339,7 +1368,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1348,7 +1377,7 @@
     <font>
       <b val="true"/>
       <i val="true"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -1363,15 +1392,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1380,109 +1400,110 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFDD4814"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFDD4814"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF008000"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFDD4814"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF008000"/>
-      <name val="Calibri"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00863D"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00AE00"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFE46C0A"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0047FF"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFE46C0A"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0099FF"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF6B4794"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FF00863D"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1520,7 +1541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1552,51 +1573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF00AE00"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00AE00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00AE00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00AE00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF0099FF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0099FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0099FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0099FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF6B0094"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF6B0094"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF6B0094"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF6B0094"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1623,7 +1599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1668,11 +1644,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1680,11 +1656,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1768,47 +1744,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1816,23 +1792,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1872,71 +1848,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,7 +1911,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF6B0094"/>
+      <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF00863D"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -1972,7 +1920,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6633"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1981,9 +1929,9 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF00AE00"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF0099FF"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -1996,8 +1944,8 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6633"/>
-      <rgbColor rgb="FF6B4794"/>
+      <rgbColor rgb="FFE46C0A"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
@@ -2017,10 +1965,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2046,7 +1994,7 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -3082,7 +3030,7 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -4114,7 +4062,7 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -5144,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="0"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
@@ -8239,9 +8187,9 @@
         <v>15</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
@@ -9270,7 +9218,7 @@
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -10301,9 +10249,9 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
@@ -11332,7 +11280,7 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -12358,7 +12306,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="0"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -13394,7 +13342,7 @@
       <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -14426,7 +14374,7 @@
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -15458,7 +15406,7 @@
       <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -16484,7 +16432,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="0"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -17518,7 +17466,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="0"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -18548,7 +18496,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="0"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -19578,11 +19526,11 @@
         <v>34</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="0"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
@@ -20604,11 +20552,11 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="0"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -21638,11 +21586,11 @@
         <v>36</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="0"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
@@ -22667,14 +22615,14 @@
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="0"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
@@ -23702,7 +23650,7 @@
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="0"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -24728,10 +24676,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="0"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -25757,14 +25705,14 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="0"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
@@ -26786,11 +26734,11 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="0"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -27818,7 +27766,7 @@
       <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="0"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -28844,7 +28792,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="0"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -29876,7 +29824,7 @@
       <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="0"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -30896,11 +30844,15 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
@@ -30914,9 +30866,14 @@
       <c r="E30" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.944444444444444" bottom="0.747916666666667" header="0.747916666666667" footer="0.511805555555555"/>
@@ -30931,298 +30888,247 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13"/>
+    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68" t="s">
-        <v>356</v>
-      </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68" t="s">
-        <v>357</v>
-      </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>367</v>
-      </c>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="74" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74" t="s">
-        <v>359</v>
-      </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.01111111111111" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Sans,Boek"&amp;9&amp;A</oddHeader>
+    <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter/>
   </headerFooter>
 </worksheet>
@@ -31233,10 +31139,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31250,339 +31156,487 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="G1" s="12" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="G2" s="77" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="77" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="77" t="s">
-        <v>376</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="77" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="77" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="77" t="s">
-        <v>379</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="77" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="77" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>384</v>
-      </c>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="G14" s="12" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="G15" s="77" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="G16" s="77" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="77" t="s">
-        <v>376</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="78" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="G19" s="12" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="77" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="G21" s="77" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="G22" s="77" t="s">
-        <v>379</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="77" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="77" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="28" t="s">
         <v>3</v>
       </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>384</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
@@ -31605,10 +31659,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31629,288 +31683,323 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="14"/>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>7199</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="15" t="n">
         <v>33560</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
@@ -31925,17 +32014,20 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -31955,16 +32047,19 @@
       <c r="J12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="16" t="s">
@@ -31978,37 +32073,44 @@
       <c r="J13" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -32029,14 +32131,18 @@
       <c r="J15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -32057,29 +32163,43 @@
       <c r="J16" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="14" t="n">
         <v>1772</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G17" s="14" t="n">
         <v>1772</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I17" s="14" t="n">
         <v>1772</v>
       </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="21" t="s">
         <v>96</v>
       </c>
@@ -32094,8 +32214,16 @@
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="21" t="s">
         <v>98</v>
       </c>
@@ -32110,8 +32238,16 @@
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="23"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="21" t="s">
         <v>99</v>
       </c>
@@ -32126,8 +32262,16 @@
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="23"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="21" t="s">
         <v>100</v>
       </c>
@@ -32142,14 +32286,33 @@
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="24" t="s">
         <v>103</v>
       </c>
@@ -32161,8 +32324,17 @@
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="25" t="s">
         <v>105</v>
       </c>
@@ -32174,6 +32346,11 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32195,10 +32372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32218,265 +32395,275 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="J8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="J9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -32492,7 +32679,16 @@
       <c r="I11" s="28" t="s">
         <v>126</v>
       </c>
+      <c r="J11" s="3"/>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -32509,10 +32705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32529,54 +32725,60 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="0"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="30" t="s">
         <v>154</v>
       </c>
       <c r="E1" s="30"/>
-      <c r="F1" s="0"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="29" t="s">
         <v>155</v>
       </c>
       <c r="H1" s="29"/>
-      <c r="I1" s="0"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="0"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="0"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="29" t="s">
         <v>156</v>
       </c>
       <c r="E3" s="29"/>
-      <c r="F3" s="0"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="29" t="s">
         <v>156</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="0"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
         <v>157</v>
       </c>
@@ -32601,9 +32803,11 @@
       <c r="H4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="0"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
         <v>96</v>
       </c>
@@ -32628,54 +32832,62 @@
       <c r="H5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="0"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="32" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="32" t="s">
         <v>163</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="0"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="0"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="29" t="s">
         <v>156</v>
       </c>
       <c r="E8" s="29"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
         <v>157</v>
       </c>
@@ -32703,8 +32915,10 @@
       <c r="I9" s="35" t="s">
         <v>76</v>
       </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
         <v>96</v>
       </c>
@@ -32732,21 +32946,36 @@
       <c r="I10" s="35" t="s">
         <v>76</v>
       </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="32" t="s">
         <v>163</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>164</v>
       </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="32" t="s">
         <v>163</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>164</v>
       </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
@@ -32776,30 +33005,30 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="7.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="1.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="36" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="37" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="3" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="3" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
         <v>168</v>
       </c>
@@ -32838,7 +33067,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
         <v>177</v>
       </c>
@@ -32886,7 +33115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38"/>
       <c r="B3" s="40" t="s">
         <v>98</v>
@@ -32932,7 +33161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38"/>
       <c r="B4" s="40" t="s">
         <v>99</v>
@@ -32978,7 +33207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38"/>
       <c r="B5" s="40" t="s">
         <v>100</v>
@@ -33024,7 +33253,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
         <v>190</v>
       </c>
@@ -33072,7 +33301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40"/>
       <c r="B7" s="40" t="s">
         <v>192</v>
@@ -33118,7 +33347,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40"/>
       <c r="B8" s="40" t="s">
         <v>194</v>
@@ -33164,7 +33393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="40" t="s">
         <v>195</v>
       </c>
@@ -33212,7 +33441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="40"/>
       <c r="B10" s="40" t="s">
         <v>201</v>
@@ -33258,7 +33487,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="40"/>
       <c r="B11" s="40" t="s">
         <v>205</v>
@@ -33304,7 +33533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="40" t="s">
         <v>206</v>
       </c>
@@ -33352,7 +33581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
         <v>212</v>
@@ -33398,7 +33627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
         <v>216</v>
@@ -33444,7 +33673,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
         <v>216</v>
       </c>
@@ -33492,7 +33721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
         <v>224</v>
@@ -33538,25 +33767,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="46"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="46"/>
       <c r="K18" s="46"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38" t="s">
         <v>226</v>
       </c>
@@ -33569,7 +33788,7 @@
       <c r="F19" s="46"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="40"/>
       <c r="B20" s="40" t="s">
         <v>172</v>
@@ -33580,7 +33799,7 @@
       <c r="F20" s="46"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40"/>
       <c r="B21" s="40" t="s">
         <v>227</v>
@@ -33591,7 +33810,7 @@
       <c r="F21" s="46"/>
       <c r="K21" s="46"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="40"/>
       <c r="B22" s="40" t="s">
         <v>228</v>
@@ -33602,7 +33821,7 @@
       <c r="F22" s="46"/>
       <c r="K22" s="46"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="40"/>
       <c r="B23" s="40" t="s">
         <v>76</v>
@@ -33613,7 +33832,7 @@
       <c r="F23" s="46"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="40"/>
       <c r="B24" s="40" t="s">
         <v>104</v>
@@ -33645,10 +33864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33656,10 +33875,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="5.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.39"/>
@@ -33854,7 +34073,7 @@
       <c r="L5" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="0"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
@@ -34077,33 +34296,70 @@
       <c r="M11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="M12" s="0"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="1" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
         <v>257</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
@@ -34120,10 +34376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+      <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34168,8 +34424,9 @@
         <v>261</v>
       </c>
       <c r="I1" s="55"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
@@ -34195,8 +34452,9 @@
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="57" t="s">
@@ -34218,8 +34476,9 @@
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="s">
@@ -34241,8 +34500,9 @@
       </c>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
@@ -34264,8 +34524,9 @@
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
@@ -34287,8 +34548,9 @@
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="s">
@@ -34312,8 +34574,9 @@
         <v>242</v>
       </c>
       <c r="I7" s="57"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="s">
@@ -34335,8 +34598,9 @@
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="s">
@@ -34360,8 +34624,9 @@
         <v>243</v>
       </c>
       <c r="I9" s="57"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
@@ -34383,8 +34648,9 @@
       </c>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
@@ -34406,8 +34672,9 @@
       </c>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57"/>
@@ -34419,8 +34686,9 @@
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
@@ -34446,8 +34714,9 @@
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="s">
@@ -34473,27 +34742,29 @@
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="58" t="s">
         <v>275</v>
       </c>
@@ -34501,16 +34772,17 @@
         <v>160</v>
       </c>
       <c r="G16" s="58"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="57" t="s">
         <v>70</v>
       </c>
@@ -34518,554 +34790,647 @@
         <v>288</v>
       </c>
       <c r="G17" s="57"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="26" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="0"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="26" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="14" t="s">
         <v>293</v>
       </c>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="0"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="1" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="0"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="0"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="1" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="0"/>
-      <c r="K23" s="62"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="H24" s="0"/>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="15" t="s">
         <v>297</v>
       </c>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G25" s="63" t="n">
+      <c r="G25" s="15" t="n">
         <v>1919</v>
       </c>
-      <c r="H25" s="0"/>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K25" s="63" t="n">
+      <c r="K25" s="15" t="n">
         <v>1919</v>
       </c>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="H26" s="0"/>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="14" t="s">
         <v>303</v>
       </c>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="1" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="0"/>
-      <c r="K27" s="63"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="H28" s="0"/>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="14" t="s">
         <v>304</v>
       </c>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="62" t="n">
+      <c r="D29" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G29" s="62" t="n">
+      <c r="G29" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K29" s="62" t="n">
+      <c r="K29" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="E33" s="26" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C34" s="0"/>
-      <c r="E34" s="1" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="0"/>
-      <c r="E35" s="1" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="0"/>
-      <c r="E36" s="1" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="0"/>
-      <c r="E37" s="1" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="0"/>
-      <c r="E38" s="1" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="0"/>
-      <c r="E39" s="1" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G42" s="0"/>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="62" t="n">
+      <c r="B44" s="14" t="n">
         <v>1902</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="62" t="n">
+      <c r="F44" s="14" t="n">
         <v>1902</v>
       </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35081,12 +35446,369 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35099,52 +35821,52 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>329</v>
+      <c r="A2" s="66" t="s">
+        <v>353</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+        <v>356</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
-        <v>333</v>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="66" t="s">
+        <v>357</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>180</v>
@@ -35155,11 +35877,20 @@
       <c r="E3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
@@ -35169,173 +35900,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" s="64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;A</oddHeader>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="422">
   <si>
     <t xml:space="preserve">component</t>
   </si>
@@ -743,67 +743,174 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">comment</t>
+    <t xml:space="preserve">param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptype</t>
   </si>
   <si>
     <t xml:space="preserve">panel</t>
   </si>
   <si>
-    <t xml:space="preserve">enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button type=button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn-default enabled</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn-default disabled</t>
-  </si>
-  <si>
     <t xml:space="preserve">toggle, prompt</t>
   </si>
   <si>
-    <t xml:space="preserve">JS availability is undetectable!</t>
-  </si>
-  <si>
     <t xml:space="preserve">form</t>
   </si>
   <si>
-    <t xml:space="preserve">button type=submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not used in practice</t>
-  </si>
-  <si>
     <t xml:space="preserve">grid</t>
   </si>
   <si>
-    <t xml:space="preserve">btn-sm enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn-sm disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page top hook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include bootbox.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page bottom hook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snippet for registering event handler</t>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diepte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/person/{id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;none&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FFF58220"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF58220"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/123456</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-book-open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML:a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">href</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data-bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML:button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn btn-primary btn-sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-trash-alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn btn-light btn-xs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/person/fetch?pid={pid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-hand-point-right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?????????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-submit prompting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/person/123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa-check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML:form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-submit validation???</t>
   </si>
   <si>
     <t xml:space="preserve">domain</t>
@@ -848,9 +955,6 @@
     <t xml:space="preserve">Getal</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leeftijd</t>
   </si>
   <si>
@@ -1109,9 +1213,6 @@
     <t xml:space="preserve">render with site template</t>
   </si>
   <si>
-    <t xml:space="preserve">route</t>
-  </si>
-  <si>
     <t xml:space="preserve">bool enum date time</t>
   </si>
   <si>
@@ -1122,9 +1223,6 @@
   </si>
   <si>
     <t xml:space="preserve">itemref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depth</t>
   </si>
   <si>
     <t xml:space="preserve">show item</t>
@@ -1229,7 +1327,7 @@
     <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1443,6 +1541,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF58220"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFDD4814"/>
@@ -1509,7 +1622,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,25 +1632,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFE5CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFBCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFE0EFD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFE5CA"/>
+        <bgColor rgb="FFFFFBCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFF58220"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
   </fills>
@@ -1599,7 +1736,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1808,10 +1945,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1820,11 +1953,75 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,18 +2033,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1856,7 +2041,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1868,15 +2073,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1900,7 +2105,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFE5CA"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1917,12 +2122,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF6633"/>
+      <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1933,17 +2138,17 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF6633"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF0047FF"/>
       <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFE46C0A"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
@@ -30908,26 +31113,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
-        <v>359</v>
+      <c r="A1" s="83" t="s">
+        <v>249</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="F1" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>364</v>
+      <c r="G1" s="83" t="s">
+        <v>246</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -30938,25 +31143,25 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="65" t="n">
+      <c r="A2" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="82" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
@@ -30968,25 +31173,25 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="G3" s="65" t="n">
+      <c r="A3" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="82" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
@@ -30998,25 +31203,25 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="65" t="n">
+      <c r="A4" s="82" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="82" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
@@ -31044,17 +31249,17 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="A6" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -31064,17 +31269,17 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="A7" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -31084,17 +31289,17 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="A8" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -31158,13 +31363,13 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+        <v>405</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
         <v>170</v>
@@ -31176,13 +31381,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>58</v>
@@ -31200,10 +31405,10 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>62</v>
@@ -31221,10 +31426,10 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>64</v>
@@ -31234,7 +31439,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="28" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -31257,13 +31462,13 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
         <v>170</v>
@@ -31278,7 +31483,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
@@ -31297,7 +31502,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>62</v>
@@ -31316,16 +31521,16 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="28" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -31336,10 +31541,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -31355,10 +31560,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -31374,7 +31579,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -31401,13 +31606,13 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+        <v>405</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
         <v>170</v>
@@ -31419,13 +31624,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
@@ -31443,10 +31648,10 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>62</v>
@@ -31464,10 +31669,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>64</v>
@@ -31477,7 +31682,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="28" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -31500,13 +31705,13 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C19" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
         <v>170</v>
@@ -31521,7 +31726,7 @@
         <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -31540,7 +31745,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -31559,16 +31764,16 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="28" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -31579,10 +31784,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -31598,10 +31803,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -31617,7 +31822,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -31661,7 +31866,7 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -33864,24 +34069,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="5.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33900,466 +34112,1368 @@
       <c r="E1" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="49" t="s">
         <v>237</v>
       </c>
+      <c r="O1" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="J2" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>245</v>
-      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="M3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="51" t="s">
+      <c r="J4" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="M4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>247</v>
-      </c>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="M5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="3"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>242</v>
-      </c>
       <c r="J6" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>242</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M6" s="50"/>
+        <v>241</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>242</v>
+      <c r="L7" s="53" t="s">
+        <v>241</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>250</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>252</v>
-      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="51" t="s">
-        <v>243</v>
-      </c>
+      <c r="H8" s="50"/>
       <c r="I8" s="51" t="s">
         <v>242</v>
       </c>
       <c r="J8" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>253</v>
-      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="51" t="s">
-        <v>243</v>
-      </c>
+      <c r="H9" s="50"/>
       <c r="I9" s="51" t="s">
         <v>242</v>
       </c>
       <c r="J9" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="50"/>
+      <c r="M9" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="51" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
         <v>243</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>242</v>
       </c>
       <c r="J10" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10" s="50"/>
+      <c r="M10" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="51" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
         <v>243</v>
       </c>
       <c r="I11" s="51" t="s">
         <v>242</v>
       </c>
       <c r="J11" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="K11" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M11" s="50"/>
+      <c r="M11" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="P12" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q12" s="50"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="E27" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="I27" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="59"/>
+      <c r="B30" s="61" t="s">
         <v>255</v>
       </c>
+      <c r="C30" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="64" t="s">
         <v>257</v>
       </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40" s="64" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="63"/>
+      <c r="B43" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="64"/>
+      <c r="B46" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="68"/>
+      <c r="B53" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" s="70"/>
+      <c r="H53" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J53" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="J55" s="67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="68"/>
+      <c r="B56" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="J56" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="67"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="70"/>
+      <c r="B59" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="70"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="70"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="J62" s="70"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
@@ -34399,349 +35513,349 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" s="55"/>
+      <c r="G1" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="72"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="57" t="s">
+      <c r="C2" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="59" t="n">
+      <c r="B3" s="76" t="n">
         <v>42625</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="B4" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="57" t="s">
+      <c r="A5" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="60" t="n">
+      <c r="B6" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="G6" s="57" t="s">
+      <c r="C6" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="61"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I7" s="57"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="74"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="G8" s="57" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" s="57"/>
+      <c r="A9" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="74"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="59" t="n">
+      <c r="A10" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="76" t="n">
         <v>0.480555555555556</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="57" t="s">
+      <c r="C10" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="57" t="s">
+      <c r="A11" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="D13" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="60" t="n">
+      <c r="B14" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="G14" s="57" t="s">
+      <c r="C14" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -34765,13 +35879,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -34783,13 +35897,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="57"/>
+      <c r="F17" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="74"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -34812,21 +35926,21 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -34838,17 +35952,17 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -34859,32 +35973,32 @@
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -34937,32 +36051,32 @@
         <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -34971,7 +36085,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>64</v>
@@ -34981,7 +36095,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G25" s="15" t="n">
         <v>1919</v>
@@ -34991,7 +36105,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="K25" s="15" t="n">
         <v>1919</v>
@@ -35003,32 +36117,32 @@
         <v>65</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -35059,32 +36173,32 @@
         <v>68</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -35093,7 +36207,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -35105,7 +36219,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G29" s="14" t="n">
         <v>2</v>
@@ -35115,7 +36229,7 @@
         <v>70</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="K29" s="14" t="n">
         <v>2</v>
@@ -35152,7 +36266,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -35168,7 +36282,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -35189,7 +36303,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -35197,7 +36311,7 @@
         <v>58</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -35229,7 +36343,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -35237,7 +36351,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -35251,7 +36365,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -35259,7 +36373,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -35273,7 +36387,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -35281,7 +36395,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -35295,7 +36409,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -35303,7 +36417,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -35317,7 +36431,7 @@
         <v>70</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -35327,13 +36441,13 @@
         <v>70</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -35345,17 +36459,17 @@
         <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -35367,19 +36481,19 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -35389,21 +36503,21 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -35458,9 +36572,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.14"/>
@@ -35469,7 +36583,7 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -35482,17 +36596,17 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -35500,18 +36614,18 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>328</v>
+      <c r="B3" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>356</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -35519,17 +36633,17 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="79" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="3"/>
@@ -35539,17 +36653,17 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -35559,12 +36673,12 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -35574,12 +36688,12 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="11" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -35589,17 +36703,17 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>336</v>
+        <v>363</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>364</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>336</v>
+        <v>363</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>364</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -35609,12 +36723,12 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -35623,13 +36737,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="64" t="s">
-        <v>338</v>
+      <c r="D10" s="81" t="s">
+        <v>366</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="64" t="s">
-        <v>338</v>
+      <c r="G10" s="81" t="s">
+        <v>366</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -35638,13 +36752,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="64" t="s">
-        <v>339</v>
+      <c r="D11" s="81" t="s">
+        <v>367</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="64" t="s">
-        <v>339</v>
+      <c r="G11" s="81" t="s">
+        <v>367</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -35653,13 +36767,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="64" t="s">
-        <v>340</v>
+      <c r="D12" s="81" t="s">
+        <v>368</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="64" t="s">
-        <v>340</v>
+      <c r="G12" s="81" t="s">
+        <v>368</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -35667,17 +36781,17 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -35686,17 +36800,17 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -35705,38 +36819,38 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>345</v>
+      <c r="B16" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>373</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>345</v>
+      <c r="E16" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>373</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -35745,17 +36859,17 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -35764,17 +36878,17 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="28" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -35822,51 +36936,51 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>352</v>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>380</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66" t="s">
-        <v>353</v>
+      <c r="A2" s="83" t="s">
+        <v>381</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66" t="s">
-        <v>357</v>
+      <c r="A3" s="83" t="s">
+        <v>385</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>180</v>
@@ -35878,9 +36992,9 @@
         <v>180</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="controller" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="pruning" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="query" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="performance" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="orm" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="588">
   <si>
     <t xml:space="preserve">component</t>
   </si>
@@ -353,6 +355,51 @@
     <t xml:space="preserve">non-atomic</t>
   </si>
   <si>
+    <t xml:space="preserve">row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations.0.o1#0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.1.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.1.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations.0.o2#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.2.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.2.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations.0.o3#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.3.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.3.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations.0.o4#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.4.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name.4.s</t>
+  </si>
+  <si>
     <t xml:space="preserve">view method</t>
   </si>
   <si>
@@ -738,9 +785,6 @@
   </si>
   <si>
     <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">param</t>
@@ -913,6 +957,78 @@
     <t xml:space="preserve">pre-submit validation???</t>
   </si>
   <si>
+    <t xml:space="preserve">list of scalars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-2 control label, for=notes.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">push/pop buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=notes.0, id=notes.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-2 control label, for=notes.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=notes.1, id=notes.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-2 control label, for=notes.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=notes.2, id=notes.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=control-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=control-label, for=relations.0.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=relations.0.role, id=relations.0.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=col-md-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=control-label, for=relations.0.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=relations.0.name, id=relations.0.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=control-label, for=relations.1.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=relations.1.role, id=relations.1.role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=control-label, for=relations.1.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class=form-control, name=relations.1.name, id=relations.1.name</t>
+  </si>
+  <si>
     <t xml:space="preserve">domain</t>
   </si>
   <si>
@@ -1316,18 +1432,406 @@
   </si>
   <si>
     <t xml:space="preserve">'[]’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mongodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rethinkdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arangodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couchbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pymongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlite3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyarango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python-arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get first 1000 records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get first 1000 records sorted by birthdate (indexed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get first 1000 records sorted by birthplace (not indexed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get all records that obey a query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get all records, only 2 columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update first 1000 records (full)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update first 1000 records (partial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:51:23.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS Geboorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Vught 1915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915-04-19T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1915-04-19 te Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb63ee45-321d-8ad8-c1b1-6f00e332ad96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:51:38.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Vught 1914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1914-01-31T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1914-01-31 te Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05a1cf51-97bb-3885-e17e-e85855f30a91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:51:43.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oudenbosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Oudenbosch 1903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1903-09-08T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1903-09-08 te Oudenbosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6c194d4-262f-cf6b-7e62-b8edfb93f45e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:51:47.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deurne en Liessel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Deurne en Liessel 1863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1863-07-14T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1863-07-14 te Deurne en Liessel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3013e37-89c5-c26d-a912-4245a755cce2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:52:04.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Oudenbosch 1899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-31T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1899-12-31 te Oudenbosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea5e64cb-b1e0-de6b-95bf-12a6fb18b889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:52:08.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baardwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Baardwijk 1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1865-02-23T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1865-02-23 te Baardwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c66c6e9-51ea-7ad2-8a9c-d98357298ac1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:52:16.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Dussen 1856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1856-10-09T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1856-10-09 te Dussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f494eb07-2b08-d72d-fb7d-16a39070c9f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:52:23.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Baardwijk 1869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1869-10-03T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1869-10-03 te Baardwijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa7fd876-ea7c-271c-4ccc-354070897993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:53:04.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-28T11:49:47.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Vught 1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1912-01-03T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1912-01-03 te Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faa6d1a2-3e1d-3a0b-ff95-2cfca5b7c5bc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-11-21T15:53:13.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geboorteregister Vught 1913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1913-01-08T00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebeurtenis: Geboorte op 1913-01-08 te Vught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe9497d8-7cb8-c9f1-2f1d-bf1eeac60bd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source_persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_persons_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source_families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_families_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583309ebe84279194870df93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583309fae84279194870df98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583309ffe84279194870df9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a03e84279194870df9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">575c0692e842790d2a631dd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a18e84279194870dfa5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a20e84279194870dfaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a27e84279194870dfaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a50e84279194870dfb4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58330a59e84279194870dfb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source_relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_relations_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnolda Catharina van Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacobus Popelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Popelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getuige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephina Popelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popelier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beemt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verhulst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1557,6 +2061,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFDD4814"/>
       <name val="DejaVu Sans"/>
@@ -1621,8 +2133,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF3715A"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1644,7 +2171,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF87D1D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1677,8 +2204,20 @@
         <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8AA97"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1710,6 +2249,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1736,7 +2282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1839,6 +2385,10 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2029,6 +2579,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2041,7 +2595,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2049,19 +2611,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2073,15 +2631,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2090,6 +2648,58 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2120,12 +2730,12 @@
       <rgbColor rgb="FF00863D"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF58220"/>
+      <rgbColor rgb="FFF3715A"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -2141,13 +2751,13 @@
       <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF6633"/>
+      <rgbColor rgb="FFF8AA97"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF0047FF"/>
       <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFE46C0A"/>
       <rgbColor rgb="FF666699"/>
@@ -2157,7 +2767,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFDD4814"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF6633"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -31113,26 +31723,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="83" t="s">
+      <c r="A1" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="83" t="s">
-        <v>246</v>
+      <c r="G1" s="86" t="s">
+        <v>260</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -31143,25 +31753,25 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="82" t="n">
+      <c r="A2" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="85" t="n">
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
@@ -31173,25 +31783,25 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="82" t="n">
+      <c r="A3" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="85" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
@@ -31203,25 +31813,25 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="82" t="n">
+      <c r="A4" s="85" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" s="85" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
@@ -31249,17 +31859,17 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="A6" s="88" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -31269,17 +31879,17 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="A7" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -31289,17 +31899,17 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="A8" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -31346,7 +31956,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -31363,16 +31973,16 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+        <v>443</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -31381,20 +31991,20 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3"/>
@@ -31405,17 +32015,17 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3"/>
@@ -31426,10 +32036,10 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>64</v>
@@ -31438,8 +32048,8 @@
         <v>67</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="28" t="s">
-        <v>412</v>
+      <c r="G4" s="29" t="s">
+        <v>450</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -31462,16 +32072,16 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -31480,10 +32090,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
@@ -31491,7 +32101,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="3"/>
@@ -31502,7 +32112,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>62</v>
@@ -31510,7 +32120,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="3"/>
@@ -31521,16 +32131,16 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="28" t="s">
-        <v>415</v>
+      <c r="G9" s="29" t="s">
+        <v>453</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -31541,14 +32151,14 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="3"/>
@@ -31560,14 +32170,14 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="3"/>
@@ -31579,7 +32189,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -31606,16 +32216,16 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
+        <v>443</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -31624,20 +32234,20 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3"/>
@@ -31648,17 +32258,17 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="3"/>
@@ -31669,10 +32279,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>64</v>
@@ -31681,8 +32291,8 @@
         <v>67</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="28" t="s">
-        <v>412</v>
+      <c r="G17" s="29" t="s">
+        <v>450</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -31705,16 +32315,16 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -31723,10 +32333,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -31734,7 +32344,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3"/>
@@ -31745,7 +32355,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -31753,7 +32363,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3"/>
@@ -31764,16 +32374,16 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="28" t="s">
-        <v>415</v>
+      <c r="G22" s="29" t="s">
+        <v>453</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -31784,14 +32394,14 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="3"/>
@@ -31803,14 +32413,14 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="29" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="3"/>
@@ -31822,7 +32432,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -31859,15 +32469,1672 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94" t="s">
+        <v>464</v>
+      </c>
+      <c r="L1" s="94"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="L2" s="94"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="92" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="95" t="n">
+        <v>0.016424</v>
+      </c>
+      <c r="C4" s="96" t="n">
+        <v>0.048995</v>
+      </c>
+      <c r="D4" s="97" t="n">
+        <f aca="false">C4/B4</f>
+        <v>2.98313443740867</v>
+      </c>
+      <c r="E4" s="95" t="n">
+        <v>0.102591</v>
+      </c>
+      <c r="F4" s="98" t="n">
+        <f aca="false">E4/B4</f>
+        <v>6.24640769605456</v>
+      </c>
+      <c r="G4" s="95" t="n">
+        <v>0.047733</v>
+      </c>
+      <c r="H4" s="98" t="n">
+        <f aca="false">G4/B4</f>
+        <v>2.90629566488066</v>
+      </c>
+      <c r="I4" s="87" t="n">
+        <v>0.017323</v>
+      </c>
+      <c r="J4" s="98" t="n">
+        <f aca="false">I4/B4</f>
+        <v>1.05473697028738</v>
+      </c>
+      <c r="K4" s="95" t="n">
+        <v>0.076974</v>
+      </c>
+      <c r="L4" s="98" t="n">
+        <f aca="false">K4/B4</f>
+        <v>4.68667803214808</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="95" t="n">
+        <v>0.017911</v>
+      </c>
+      <c r="C5" s="96" t="n">
+        <v>0.008847</v>
+      </c>
+      <c r="D5" s="97" t="n">
+        <f aca="false">C5/B5</f>
+        <v>0.493942270113338</v>
+      </c>
+      <c r="E5" s="95" t="n">
+        <v>0.224636</v>
+      </c>
+      <c r="F5" s="98" t="n">
+        <f aca="false">E5/B5</f>
+        <v>12.5417899614762</v>
+      </c>
+      <c r="G5" s="95" t="n">
+        <v>0.118356</v>
+      </c>
+      <c r="H5" s="98" t="n">
+        <f aca="false">G5/B5</f>
+        <v>6.60800625314053</v>
+      </c>
+      <c r="I5" s="87" t="n">
+        <v>0.022906</v>
+      </c>
+      <c r="J5" s="98" t="n">
+        <f aca="false">I5/B5</f>
+        <v>1.27887890123388</v>
+      </c>
+      <c r="K5" s="95" t="n">
+        <v>2.457824</v>
+      </c>
+      <c r="L5" s="98" t="n">
+        <f aca="false">K5/B5</f>
+        <v>137.224275584836</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="95" t="n">
+        <v>0.062072</v>
+      </c>
+      <c r="C6" s="96" t="n">
+        <v>0.079314</v>
+      </c>
+      <c r="D6" s="97" t="n">
+        <f aca="false">C6/B6</f>
+        <v>1.27777419770589</v>
+      </c>
+      <c r="E6" s="95" t="n">
+        <v>0.106703</v>
+      </c>
+      <c r="F6" s="98" t="n">
+        <f aca="false">E6/B6</f>
+        <v>1.71901984791855</v>
+      </c>
+      <c r="G6" s="95" t="n">
+        <v>0.102644</v>
+      </c>
+      <c r="H6" s="98" t="n">
+        <f aca="false">G6/B6</f>
+        <v>1.65362804485114</v>
+      </c>
+      <c r="I6" s="87" t="n">
+        <v>0.052501</v>
+      </c>
+      <c r="J6" s="98" t="n">
+        <f aca="false">I6/B6</f>
+        <v>0.845808093826524</v>
+      </c>
+      <c r="K6" s="95" t="n">
+        <v>2.548866</v>
+      </c>
+      <c r="L6" s="98" t="n">
+        <f aca="false">K6/B6</f>
+        <v>41.0630558061606</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="95" t="n">
+        <v>0.027084</v>
+      </c>
+      <c r="C7" s="96" t="n">
+        <v>0.012179</v>
+      </c>
+      <c r="D7" s="97" t="n">
+        <f aca="false">C7/B7</f>
+        <v>0.449675084920987</v>
+      </c>
+      <c r="E7" s="95" t="n">
+        <v>0.150609</v>
+      </c>
+      <c r="F7" s="98" t="n">
+        <f aca="false">E7/B7</f>
+        <v>5.56081081081081</v>
+      </c>
+      <c r="G7" s="95" t="n">
+        <v>0.056508</v>
+      </c>
+      <c r="H7" s="98" t="n">
+        <f aca="false">G7/B7</f>
+        <v>2.08639787328312</v>
+      </c>
+      <c r="I7" s="87" t="n">
+        <v>0.033761</v>
+      </c>
+      <c r="J7" s="98" t="n">
+        <f aca="false">I7/B7</f>
+        <v>1.24652931620145</v>
+      </c>
+      <c r="K7" s="95" t="n">
+        <v>2.274458</v>
+      </c>
+      <c r="L7" s="98" t="n">
+        <f aca="false">K7/B7</f>
+        <v>83.9779205434943</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="95" t="n">
+        <v>0.137918</v>
+      </c>
+      <c r="C8" s="95" t="n">
+        <v>0.045261</v>
+      </c>
+      <c r="D8" s="97" t="n">
+        <f aca="false">C8/B8</f>
+        <v>0.328173262373294</v>
+      </c>
+      <c r="E8" s="95" t="n">
+        <v>0.343385</v>
+      </c>
+      <c r="F8" s="98" t="n">
+        <f aca="false">E8/B8</f>
+        <v>2.48977653388245</v>
+      </c>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="87" t="n">
+        <v>0.172413</v>
+      </c>
+      <c r="J8" s="98" t="n">
+        <f aca="false">I8/B8</f>
+        <v>1.25011238562044</v>
+      </c>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="95" t="n">
+        <v>0.360714</v>
+      </c>
+      <c r="C9" s="95" t="n">
+        <v>0.148961</v>
+      </c>
+      <c r="D9" s="97" t="n">
+        <f aca="false">C9/B9</f>
+        <v>0.412961515217042</v>
+      </c>
+      <c r="E9" s="95" t="n">
+        <v>31.425577</v>
+      </c>
+      <c r="F9" s="98" t="n">
+        <f aca="false">E9/B9</f>
+        <v>87.1204804914697</v>
+      </c>
+      <c r="G9" s="95" t="n">
+        <v>1.901056</v>
+      </c>
+      <c r="H9" s="98" t="n">
+        <f aca="false">G9/B9</f>
+        <v>5.27025843188787</v>
+      </c>
+      <c r="I9" s="87" t="n">
+        <v>1.688972</v>
+      </c>
+      <c r="J9" s="98" t="n">
+        <f aca="false">I9/B9</f>
+        <v>4.6823023226157</v>
+      </c>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="87" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="95" t="n">
+        <v>0.410004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="100" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="101" t="s">
+        <v>487</v>
+      </c>
+      <c r="O1" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="P1" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q1" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2" s="103" t="n">
+        <v>57</v>
+      </c>
+      <c r="J2" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" s="103" t="n">
+        <v>111</v>
+      </c>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q2" s="103" t="n">
+        <v>6970</v>
+      </c>
+      <c r="R2" s="87"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="H3" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="I3" s="103" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>503</v>
+      </c>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
+        <v>504</v>
+      </c>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103" t="n">
+        <v>111</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q3" s="103" t="n">
+        <v>6973</v>
+      </c>
+      <c r="R3" s="87"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" s="103" t="n">
+        <v>125</v>
+      </c>
+      <c r="J4" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>510</v>
+      </c>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" s="103" t="n">
+        <v>222</v>
+      </c>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q4" s="103" t="n">
+        <v>6969</v>
+      </c>
+      <c r="R4" s="87"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="103" t="n">
+        <v>57</v>
+      </c>
+      <c r="J5" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103" t="s">
+        <v>518</v>
+      </c>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103" t="n">
+        <v>222</v>
+      </c>
+      <c r="P5" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q5" s="103" t="n">
+        <v>6962</v>
+      </c>
+      <c r="R5" s="87"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="I6" s="103" t="n">
+        <v>163</v>
+      </c>
+      <c r="J6" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103" t="s">
+        <v>524</v>
+      </c>
+      <c r="N6" s="103" t="n">
+        <v>333</v>
+      </c>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q6" s="103" t="n">
+        <v>6968</v>
+      </c>
+      <c r="R6" s="87"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>528</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>529</v>
+      </c>
+      <c r="I7" s="103" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>530</v>
+      </c>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103" t="n">
+        <v>333</v>
+      </c>
+      <c r="P7" s="103" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q7" s="103" t="n">
+        <v>6956</v>
+      </c>
+      <c r="R7" s="87"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="102"/>
+      <c r="B8" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>535</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>536</v>
+      </c>
+      <c r="I8" s="103" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>537</v>
+      </c>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103" t="s">
+        <v>538</v>
+      </c>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q8" s="103" t="n">
+        <v>6963</v>
+      </c>
+      <c r="R8" s="87"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>528</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" s="103" t="n">
+        <v>44</v>
+      </c>
+      <c r="J9" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="104" t="s">
+        <v>543</v>
+      </c>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103" t="s">
+        <v>544</v>
+      </c>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q9" s="103" t="n">
+        <v>6957</v>
+      </c>
+      <c r="R9" s="87"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>548</v>
+      </c>
+      <c r="I10" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="104" t="s">
+        <v>549</v>
+      </c>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103" t="s">
+        <v>550</v>
+      </c>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q10" s="103" t="n">
+        <v>6971</v>
+      </c>
+      <c r="R10" s="87"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="I11" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="104" t="s">
+        <v>554</v>
+      </c>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103" t="s">
+        <v>555</v>
+      </c>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q11" s="103" t="n">
+        <v>6972</v>
+      </c>
+      <c r="R11" s="87"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="103"/>
+      <c r="B18" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="103"/>
+      <c r="B19" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>566</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>566</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="103"/>
+      <c r="B20" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="103" t="s">
+        <v>568</v>
+      </c>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="103"/>
+      <c r="B22" s="103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>569</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" s="103" t="s">
+        <v>569</v>
+      </c>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="103"/>
+      <c r="B23" s="103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103" t="n">
+        <v>9</v>
+      </c>
+      <c r="H23" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="103" t="s">
+        <v>570</v>
+      </c>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="100" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>572</v>
+      </c>
+      <c r="D25" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="103"/>
+      <c r="B29" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="103"/>
+      <c r="B31" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="103"/>
+      <c r="B32" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="103"/>
+      <c r="B33" s="103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>577</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="103"/>
+      <c r="B34" s="103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" s="103" t="s">
+        <v>579</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="103"/>
+      <c r="B35" s="103" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="E35" s="103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32556,6 +34823,73 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32601,53 +34935,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>107</v>
+      <c r="A1" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -32658,205 +34992,205 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -32865,24 +35199,24 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>150</v>
+      <c r="A11" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -32931,111 +35265,111 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="31"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="30"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="30"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="29"/>
+      <c r="D3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>156</v>
+      <c r="G3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>158</v>
+      <c r="A4" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>161</v>
+      <c r="H5" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -33045,18 +35379,18 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>89</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>164</v>
+      <c r="G6" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -33076,15 +35410,15 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="29"/>
+      <c r="A8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -33093,62 +35427,62 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="A9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="35" t="s">
+      <c r="H10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="3"/>
@@ -33158,18 +35492,18 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>164</v>
+      <c r="D11" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>164</v>
+      <c r="G11" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -33220,833 +35554,833 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="7.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="1.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="36" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="37" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="37" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="37" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="37" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="38" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="38" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="38" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="3" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="3" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>176</v>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="40" t="str">
+      <c r="G2" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D2,", ...)")</f>
         <v>Field(Id, ...)</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>180</v>
+      <c r="L2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="40" t="str">
+      <c r="G3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D3,", ...)")</f>
         <v>Field(Created, ...)</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>180</v>
+      <c r="J3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="40" t="str">
+      <c r="G4" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D4,", ...)")</f>
         <v>Field(Modified, ...)</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>180</v>
+      <c r="J4" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="40" t="str">
+      <c r="G5" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D5,", ...)")</f>
         <v>Field(Active, ...)</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>180</v>
+      <c r="J5" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="40" t="str">
+      <c r="G6" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D6,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>180</v>
+      <c r="J6" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="40" t="str">
+      <c r="D7" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D7,", ...)")</f>
         <v>Field(ISSN, ...)</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>180</v>
+      <c r="I7" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="43" t="str">
+      <c r="H8" s="44" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D8,", ...)")</f>
         <v>Field(Volume, ...)</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>180</v>
+      <c r="L8" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="40" t="str">
+      <c r="D9" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D9,", ...)")</f>
         <v>Field(VolumeId, ...)</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>180</v>
+      <c r="I9" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="40" t="str">
+      <c r="D10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D10,", ...)")</f>
         <v>Field(Year, ...)</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>180</v>
+      <c r="I10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="43" t="str">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="44" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D11,", ...)")</f>
         <v>Field(Issue, ...)</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" s="42" t="s">
+      <c r="I11" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>180</v>
+      <c r="L11" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="40" t="str">
+      <c r="D12" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D12,", ...)")</f>
         <v>Field(IssueId, ...)</v>
       </c>
-      <c r="I12" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>180</v>
+      <c r="I12" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="40" t="str">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D13,", ...)")</f>
         <v>Field(PublicationDate, ...)</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>180</v>
+      <c r="I13" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="40" t="str">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D14,", ...)")</f>
         <v>Field(Article, ...)</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>223</v>
+      <c r="I14" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="40" t="str">
+      <c r="G15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D15,", ...)")</f>
         <v>Field(Title, ...)</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>180</v>
+      <c r="J15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="40" t="str">
+      <c r="D16" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="41" t="str">
         <f aca="false">CONCATENATE("Field(",model!$D16,", ...)")</f>
         <v>Field(ArticleId, ...)</v>
       </c>
-      <c r="I16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>180</v>
+      <c r="I16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="46"/>
-      <c r="K20" s="46"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="47"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="46"/>
-      <c r="K22" s="46"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="47"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="47"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="46"/>
-      <c r="K24" s="46"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="47"/>
+      <c r="K24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34071,8 +36405,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34081,8 +36415,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.91"/>
@@ -34097,1369 +36431,1680 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" s="49" t="s">
+      <c r="J1" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="50"/>
+      <c r="N1" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50"/>
+      <c r="B2" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
+      <c r="B3" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="50"/>
+      <c r="B4" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="B5" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="M6" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="50"/>
+      <c r="B6" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="52"/>
+      <c r="B7" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="50"/>
+      <c r="B8" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="50"/>
+      <c r="B9" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="50"/>
+      <c r="B10" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="50"/>
+      <c r="B11" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="O12" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="P12" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="O12" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="F13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>239</v>
+      <c r="I13" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>253</v>
       </c>
       <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>254</v>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>268</v>
       </c>
       <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>239</v>
+      <c r="I16" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>253</v>
       </c>
       <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="A19" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="54" t="s">
+      <c r="A22" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
+      <c r="G22" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="56" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="58" t="s">
+      <c r="F26" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>239</v>
+      <c r="I26" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>254</v>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>239</v>
+      <c r="I29" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>254</v>
+      <c r="A30" s="60"/>
+      <c r="B30" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
+      <c r="A32" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="58" t="s">
+      <c r="A35" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
+      <c r="G35" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="G36" s="60" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="62" t="s">
+      <c r="F39" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>239</v>
+      <c r="I39" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="64" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64" t="s">
+      <c r="G40" s="65"/>
+      <c r="H40" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="J40" s="64" t="s">
-        <v>248</v>
+      <c r="I40" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="65" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="62" t="s">
+      <c r="B42" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="H42" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="J42" s="62" t="s">
-        <v>239</v>
+      <c r="I42" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" s="63" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63"/>
-      <c r="B43" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>248</v>
+      <c r="I43" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="62" t="s">
+      <c r="A48" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
+      <c r="G48" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="G49" s="64" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="65" t="s">
-        <v>277</v>
+      <c r="B50" s="66" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="67" t="s">
+      <c r="F52" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="E52" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="67" t="s">
-        <v>239</v>
+      <c r="I52" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="J52" s="68" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="G53" s="70"/>
-      <c r="H53" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I53" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>254</v>
+      <c r="A53" s="69"/>
+      <c r="B53" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" s="71"/>
+      <c r="H53" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="67" t="s">
+      <c r="B55" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="E55" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="J55" s="67" t="s">
-        <v>239</v>
+      <c r="I55" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" s="68" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="68"/>
-      <c r="B56" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C56" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I56" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="J56" s="60" t="s">
-        <v>254</v>
+      <c r="A56" s="69"/>
+      <c r="B56" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="H56" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="61" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="67" t="s">
+      <c r="A58" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="70"/>
-      <c r="B59" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C59" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="71"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="67" t="s">
+      <c r="A61" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="I61" s="67" t="s">
+      <c r="G61" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="70"/>
+      <c r="J61" s="71"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="F62" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="G62" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="H62" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="I62" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="J62" s="70"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="H62" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="J62" s="71"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="66" t="s">
-        <v>286</v>
-      </c>
+      <c r="B64" s="67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="E91" s="74"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="E94" s="74"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="74"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="27"/>
+      <c r="D96" s="74"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="74"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="74"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
     </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -35475,6 +38120,22 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:G105"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -35513,349 +38174,349 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="72" t="s">
+      <c r="D1" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="72"/>
+      <c r="G1" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="75"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="G2" s="74" t="s">
+      <c r="C2" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="76" t="n">
+      <c r="A3" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="79" t="n">
         <v>42625</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="74" t="s">
+      <c r="C3" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="74" t="s">
+      <c r="A4" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="74" t="s">
+      <c r="A5" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77" t="n">
+      <c r="B6" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="74" t="s">
+      <c r="C6" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" s="74"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="77"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="74" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="74"/>
+      <c r="A9" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="77"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="76" t="n">
+      <c r="A10" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="79" t="n">
         <v>0.480555555555556</v>
       </c>
-      <c r="C10" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="74" t="s">
+      <c r="C10" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="74" t="s">
+      <c r="A11" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="D13" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="77" t="n">
+      <c r="B14" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="74" t="s">
+      <c r="C14" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -35879,13 +38540,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="75" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="75"/>
+      <c r="E16" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="78"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -35897,13 +38558,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="74"/>
+      <c r="F17" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="77"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -35926,21 +38587,21 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -35952,17 +38613,17 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -35973,32 +38634,32 @@
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -36051,32 +38712,32 @@
         <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -36085,7 +38746,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>64</v>
@@ -36095,7 +38756,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G25" s="15" t="n">
         <v>1919</v>
@@ -36105,7 +38766,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K25" s="15" t="n">
         <v>1919</v>
@@ -36117,32 +38778,32 @@
         <v>65</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -36173,32 +38834,32 @@
         <v>68</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -36207,7 +38868,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -36219,7 +38880,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G29" s="14" t="n">
         <v>2</v>
@@ -36229,7 +38890,7 @@
         <v>70</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="K29" s="14" t="n">
         <v>2</v>
@@ -36266,7 +38927,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -36282,7 +38943,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -36303,7 +38964,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -36311,7 +38972,7 @@
         <v>58</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -36343,7 +39004,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -36351,7 +39012,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -36365,7 +39026,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -36373,7 +39034,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -36387,7 +39048,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -36395,7 +39056,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -36409,7 +39070,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -36417,7 +39078,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -36431,7 +39092,7 @@
         <v>70</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -36441,13 +39102,13 @@
         <v>70</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -36459,17 +39120,17 @@
         <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -36481,19 +39142,19 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -36503,21 +39164,21 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -36583,7 +39244,7 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -36596,17 +39257,17 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -36614,18 +39275,18 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>356</v>
+      <c r="B3" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>394</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -36633,17 +39294,17 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="82" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="3"/>
@@ -36653,17 +39314,17 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -36673,12 +39334,12 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -36688,12 +39349,12 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="11" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="11" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -36703,17 +39364,17 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>364</v>
+        <v>401</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>402</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>364</v>
+        <v>401</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>402</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -36723,12 +39384,12 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -36737,13 +39398,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="81" t="s">
-        <v>366</v>
+      <c r="D10" s="84" t="s">
+        <v>404</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="81" t="s">
-        <v>366</v>
+      <c r="G10" s="84" t="s">
+        <v>404</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -36752,13 +39413,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="81" t="s">
-        <v>367</v>
+      <c r="D11" s="84" t="s">
+        <v>405</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="81" t="s">
-        <v>367</v>
+      <c r="G11" s="84" t="s">
+        <v>405</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -36767,13 +39428,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="81" t="s">
-        <v>368</v>
+      <c r="D12" s="84" t="s">
+        <v>406</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="81" t="s">
-        <v>368</v>
+      <c r="G12" s="84" t="s">
+        <v>406</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -36781,17 +39442,17 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -36800,17 +39461,17 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -36819,38 +39480,38 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>373</v>
+      <c r="B16" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>411</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>373</v>
+      <c r="E16" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>411</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -36859,17 +39520,17 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -36877,18 +39538,18 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>376</v>
+      <c r="B18" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>376</v>
+      <c r="E18" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -36936,65 +39597,65 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>380</v>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>418</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>384</v>
+      <c r="A2" s="86" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>422</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>180</v>
+      <c r="A3" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>195</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="591">
   <si>
     <t xml:space="preserve">component</t>
   </si>
@@ -1494,6 +1494,15 @@
     <t xml:space="preserve">update first 1000 records (partial)</t>
   </si>
   <si>
+    <t xml:space="preserve">/var on slow disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var=/ HDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/var=/ SSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
@@ -1826,12 +1835,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2148,6 +2157,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2282,7 +2299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2681,6 +2698,10 @@
     </xf>
     <xf numFmtId="164" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -32474,27 +32495,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32504,26 +32527,34 @@
       <c r="B1" s="93" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94" t="s">
         <v>461</v>
-      </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94" t="s">
-        <v>463</v>
       </c>
       <c r="H1" s="94"/>
       <c r="I1" s="94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J1" s="94"/>
       <c r="K1" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="L1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="92" t="s">
@@ -32532,26 +32563,34 @@
       <c r="B2" s="93" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94" t="s">
         <v>467</v>
-      </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94" t="s">
-        <v>469</v>
       </c>
       <c r="H2" s="94"/>
       <c r="I2" s="94" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J2" s="94"/>
       <c r="K2" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94" t="s">
         <v>468</v>
       </c>
-      <c r="L2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="92" t="s">
@@ -32590,6 +32629,18 @@
       <c r="L3" s="93" t="s">
         <v>472</v>
       </c>
+      <c r="M3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="O3" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" s="93" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="87" t="s">
@@ -32598,39 +32649,53 @@
       <c r="B4" s="95" t="n">
         <v>0.016424</v>
       </c>
-      <c r="C4" s="96" t="n">
+      <c r="C4" s="95" t="n">
+        <v>0.001563</v>
+      </c>
+      <c r="D4" s="96" t="n">
+        <f aca="false">C4/B4</f>
+        <v>0.0951656113005358</v>
+      </c>
+      <c r="E4" s="95" t="n">
+        <v>0.000453</v>
+      </c>
+      <c r="F4" s="96" t="n">
+        <f aca="false">E4/B4</f>
+        <v>0.0275815879201169</v>
+      </c>
+      <c r="G4" s="97" t="n">
         <v>0.048995</v>
       </c>
-      <c r="D4" s="97" t="n">
-        <f aca="false">C4/B4</f>
+      <c r="H4" s="96" t="n">
+        <f aca="false">G4/B4</f>
         <v>2.98313443740867</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="I4" s="95" t="n">
         <v>0.102591</v>
-      </c>
-      <c r="F4" s="98" t="n">
-        <f aca="false">E4/B4</f>
-        <v>6.24640769605456</v>
-      </c>
-      <c r="G4" s="95" t="n">
-        <v>0.047733</v>
-      </c>
-      <c r="H4" s="98" t="n">
-        <f aca="false">G4/B4</f>
-        <v>2.90629566488066</v>
-      </c>
-      <c r="I4" s="87" t="n">
-        <v>0.017323</v>
       </c>
       <c r="J4" s="98" t="n">
         <f aca="false">I4/B4</f>
-        <v>1.05473697028738</v>
+        <v>6.24640769605456</v>
       </c>
       <c r="K4" s="95" t="n">
-        <v>0.076974</v>
+        <v>0.047733</v>
       </c>
       <c r="L4" s="98" t="n">
         <f aca="false">K4/B4</f>
+        <v>2.90629566488066</v>
+      </c>
+      <c r="M4" s="87" t="n">
+        <v>0.017323</v>
+      </c>
+      <c r="N4" s="98" t="n">
+        <f aca="false">M4/B4</f>
+        <v>1.05473697028738</v>
+      </c>
+      <c r="O4" s="95" t="n">
+        <v>0.076974</v>
+      </c>
+      <c r="P4" s="98" t="n">
+        <f aca="false">O4/B4</f>
         <v>4.68667803214808</v>
       </c>
     </row>
@@ -32641,39 +32706,53 @@
       <c r="B5" s="95" t="n">
         <v>0.017911</v>
       </c>
-      <c r="C5" s="96" t="n">
+      <c r="C5" s="95" t="n">
+        <v>0.001212</v>
+      </c>
+      <c r="D5" s="96" t="n">
+        <f aca="false">C5/B5</f>
+        <v>0.0676679135726648</v>
+      </c>
+      <c r="E5" s="95" t="n">
+        <v>0.000548</v>
+      </c>
+      <c r="F5" s="96" t="n">
+        <f aca="false">E5/B5</f>
+        <v>0.0305957232985316</v>
+      </c>
+      <c r="G5" s="97" t="n">
         <v>0.008847</v>
       </c>
-      <c r="D5" s="97" t="n">
-        <f aca="false">C5/B5</f>
+      <c r="H5" s="96" t="n">
+        <f aca="false">G5/B5</f>
         <v>0.493942270113338</v>
       </c>
-      <c r="E5" s="95" t="n">
+      <c r="I5" s="95" t="n">
         <v>0.224636</v>
-      </c>
-      <c r="F5" s="98" t="n">
-        <f aca="false">E5/B5</f>
-        <v>12.5417899614762</v>
-      </c>
-      <c r="G5" s="95" t="n">
-        <v>0.118356</v>
-      </c>
-      <c r="H5" s="98" t="n">
-        <f aca="false">G5/B5</f>
-        <v>6.60800625314053</v>
-      </c>
-      <c r="I5" s="87" t="n">
-        <v>0.022906</v>
       </c>
       <c r="J5" s="98" t="n">
         <f aca="false">I5/B5</f>
-        <v>1.27887890123388</v>
+        <v>12.5417899614762</v>
       </c>
       <c r="K5" s="95" t="n">
-        <v>2.457824</v>
+        <v>0.118356</v>
       </c>
       <c r="L5" s="98" t="n">
         <f aca="false">K5/B5</f>
+        <v>6.60800625314053</v>
+      </c>
+      <c r="M5" s="87" t="n">
+        <v>0.022906</v>
+      </c>
+      <c r="N5" s="98" t="n">
+        <f aca="false">M5/B5</f>
+        <v>1.27887890123388</v>
+      </c>
+      <c r="O5" s="95" t="n">
+        <v>2.457824</v>
+      </c>
+      <c r="P5" s="98" t="n">
+        <f aca="false">O5/B5</f>
         <v>137.224275584836</v>
       </c>
     </row>
@@ -32684,39 +32763,53 @@
       <c r="B6" s="95" t="n">
         <v>0.062072</v>
       </c>
-      <c r="C6" s="96" t="n">
+      <c r="C6" s="97" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="D6" s="96" t="n">
+        <f aca="false">C6/B6</f>
+        <v>0.0122438458564248</v>
+      </c>
+      <c r="E6" s="97" t="n">
+        <v>0.00037</v>
+      </c>
+      <c r="F6" s="96" t="n">
+        <f aca="false">E6/B6</f>
+        <v>0.00596081969325944</v>
+      </c>
+      <c r="G6" s="97" t="n">
         <v>0.079314</v>
       </c>
-      <c r="D6" s="97" t="n">
-        <f aca="false">C6/B6</f>
+      <c r="H6" s="96" t="n">
+        <f aca="false">G6/B6</f>
         <v>1.27777419770589</v>
       </c>
-      <c r="E6" s="95" t="n">
+      <c r="I6" s="95" t="n">
         <v>0.106703</v>
-      </c>
-      <c r="F6" s="98" t="n">
-        <f aca="false">E6/B6</f>
-        <v>1.71901984791855</v>
-      </c>
-      <c r="G6" s="95" t="n">
-        <v>0.102644</v>
-      </c>
-      <c r="H6" s="98" t="n">
-        <f aca="false">G6/B6</f>
-        <v>1.65362804485114</v>
-      </c>
-      <c r="I6" s="87" t="n">
-        <v>0.052501</v>
       </c>
       <c r="J6" s="98" t="n">
         <f aca="false">I6/B6</f>
-        <v>0.845808093826524</v>
+        <v>1.71901984791855</v>
       </c>
       <c r="K6" s="95" t="n">
-        <v>2.548866</v>
+        <v>0.102644</v>
       </c>
       <c r="L6" s="98" t="n">
         <f aca="false">K6/B6</f>
+        <v>1.65362804485114</v>
+      </c>
+      <c r="M6" s="87" t="n">
+        <v>0.052501</v>
+      </c>
+      <c r="N6" s="98" t="n">
+        <f aca="false">M6/B6</f>
+        <v>0.845808093826524</v>
+      </c>
+      <c r="O6" s="95" t="n">
+        <v>2.548866</v>
+      </c>
+      <c r="P6" s="98" t="n">
+        <f aca="false">O6/B6</f>
         <v>41.0630558061606</v>
       </c>
     </row>
@@ -32727,39 +32820,53 @@
       <c r="B7" s="95" t="n">
         <v>0.027084</v>
       </c>
-      <c r="C7" s="96" t="n">
+      <c r="C7" s="95" t="n">
+        <v>0.000668</v>
+      </c>
+      <c r="D7" s="96" t="n">
+        <f aca="false">C7/B7</f>
+        <v>0.0246640082705656</v>
+      </c>
+      <c r="E7" s="95" t="n">
+        <v>0.000314</v>
+      </c>
+      <c r="F7" s="96" t="n">
+        <f aca="false">E7/B7</f>
+        <v>0.0115935607738886</v>
+      </c>
+      <c r="G7" s="97" t="n">
         <v>0.012179</v>
       </c>
-      <c r="D7" s="97" t="n">
-        <f aca="false">C7/B7</f>
+      <c r="H7" s="96" t="n">
+        <f aca="false">G7/B7</f>
         <v>0.449675084920987</v>
       </c>
-      <c r="E7" s="95" t="n">
+      <c r="I7" s="95" t="n">
         <v>0.150609</v>
-      </c>
-      <c r="F7" s="98" t="n">
-        <f aca="false">E7/B7</f>
-        <v>5.56081081081081</v>
-      </c>
-      <c r="G7" s="95" t="n">
-        <v>0.056508</v>
-      </c>
-      <c r="H7" s="98" t="n">
-        <f aca="false">G7/B7</f>
-        <v>2.08639787328312</v>
-      </c>
-      <c r="I7" s="87" t="n">
-        <v>0.033761</v>
       </c>
       <c r="J7" s="98" t="n">
         <f aca="false">I7/B7</f>
-        <v>1.24652931620145</v>
+        <v>5.56081081081081</v>
       </c>
       <c r="K7" s="95" t="n">
-        <v>2.274458</v>
+        <v>0.056508</v>
       </c>
       <c r="L7" s="98" t="n">
         <f aca="false">K7/B7</f>
+        <v>2.08639787328312</v>
+      </c>
+      <c r="M7" s="87" t="n">
+        <v>0.033761</v>
+      </c>
+      <c r="N7" s="98" t="n">
+        <f aca="false">M7/B7</f>
+        <v>1.24652931620145</v>
+      </c>
+      <c r="O7" s="95" t="n">
+        <v>2.274458</v>
+      </c>
+      <c r="P7" s="98" t="n">
+        <f aca="false">O7/B7</f>
         <v>83.9779205434943</v>
       </c>
     </row>
@@ -32771,30 +32878,44 @@
         <v>0.137918</v>
       </c>
       <c r="C8" s="95" t="n">
+        <v>0.000694</v>
+      </c>
+      <c r="D8" s="96" t="n">
+        <f aca="false">C8/B8</f>
+        <v>0.0050319755216868</v>
+      </c>
+      <c r="E8" s="95" t="n">
+        <v>0.000297</v>
+      </c>
+      <c r="F8" s="96" t="n">
+        <f aca="false">E8/B8</f>
+        <v>0.00215345350135588</v>
+      </c>
+      <c r="G8" s="95" t="n">
         <v>0.045261</v>
       </c>
-      <c r="D8" s="97" t="n">
-        <f aca="false">C8/B8</f>
+      <c r="H8" s="96" t="n">
+        <f aca="false">G8/B8</f>
         <v>0.328173262373294</v>
       </c>
-      <c r="E8" s="95" t="n">
+      <c r="I8" s="95" t="n">
         <v>0.343385</v>
-      </c>
-      <c r="F8" s="98" t="n">
-        <f aca="false">E8/B8</f>
-        <v>2.48977653388245</v>
-      </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="87" t="n">
-        <v>0.172413</v>
       </c>
       <c r="J8" s="98" t="n">
         <f aca="false">I8/B8</f>
-        <v>1.25011238562044</v>
+        <v>2.48977653388245</v>
       </c>
       <c r="K8" s="99"/>
       <c r="L8" s="99"/>
+      <c r="M8" s="87" t="n">
+        <v>0.172413</v>
+      </c>
+      <c r="N8" s="98" t="n">
+        <f aca="false">M8/B8</f>
+        <v>1.25011238562044</v>
+      </c>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
@@ -32804,35 +32925,49 @@
         <v>0.360714</v>
       </c>
       <c r="C9" s="95" t="n">
+        <v>0.000681</v>
+      </c>
+      <c r="D9" s="96" t="n">
+        <f aca="false">C9/B9</f>
+        <v>0.0018879222874632</v>
+      </c>
+      <c r="E9" s="95" t="n">
+        <v>0.000271</v>
+      </c>
+      <c r="F9" s="96" t="n">
+        <f aca="false">E9/B9</f>
+        <v>0.000751287723792256</v>
+      </c>
+      <c r="G9" s="95" t="n">
         <v>0.148961</v>
       </c>
-      <c r="D9" s="97" t="n">
-        <f aca="false">C9/B9</f>
+      <c r="H9" s="96" t="n">
+        <f aca="false">G9/B9</f>
         <v>0.412961515217042</v>
       </c>
-      <c r="E9" s="95" t="n">
+      <c r="I9" s="95" t="n">
         <v>31.425577</v>
-      </c>
-      <c r="F9" s="98" t="n">
-        <f aca="false">E9/B9</f>
-        <v>87.1204804914697</v>
-      </c>
-      <c r="G9" s="95" t="n">
-        <v>1.901056</v>
-      </c>
-      <c r="H9" s="98" t="n">
-        <f aca="false">G9/B9</f>
-        <v>5.27025843188787</v>
-      </c>
-      <c r="I9" s="87" t="n">
-        <v>1.688972</v>
       </c>
       <c r="J9" s="98" t="n">
         <f aca="false">I9/B9</f>
+        <v>87.1204804914697</v>
+      </c>
+      <c r="K9" s="95" t="n">
+        <v>1.901056</v>
+      </c>
+      <c r="L9" s="98" t="n">
+        <f aca="false">K9/B9</f>
+        <v>5.27025843188787</v>
+      </c>
+      <c r="M9" s="87" t="n">
+        <v>1.688972</v>
+      </c>
+      <c r="N9" s="98" t="n">
+        <f aca="false">M9/B9</f>
         <v>4.6823023226157</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="87" t="s">
@@ -32841,19 +32976,46 @@
       <c r="B10" s="95" t="n">
         <v>0.410004</v>
       </c>
+      <c r="C10" s="95" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="D10" s="96" t="n">
+        <f aca="false">C10/B10</f>
+        <v>0.00163413039872782</v>
+      </c>
+      <c r="E10" s="95" t="n">
+        <v>0.000268</v>
+      </c>
+      <c r="F10" s="96" t="n">
+        <f aca="false">E10/B10</f>
+        <v>0.000653652159491127</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="87" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="87" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -32898,527 +33060,527 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="101" t="s">
-        <v>481</v>
-      </c>
-      <c r="H1" s="101" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="101" t="s">
-        <v>483</v>
-      </c>
-      <c r="J1" s="101" t="s">
+      <c r="G1" s="102" t="s">
         <v>484</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="I1" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="J1" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="102" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="102" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="101" t="s">
-        <v>487</v>
-      </c>
-      <c r="O1" s="101" t="s">
-        <v>488</v>
-      </c>
-      <c r="P1" s="101" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q1" s="101" t="s">
+      <c r="N1" s="102" t="s">
         <v>490</v>
+      </c>
+      <c r="O1" s="102" t="s">
+        <v>491</v>
+      </c>
+      <c r="P1" s="102" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q1" s="102" t="s">
+        <v>493</v>
       </c>
       <c r="R1" s="87"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103" t="n">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="F2" s="103" t="s">
+      <c r="C2" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="D2" s="105" t="s">
         <v>495</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="E2" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="I2" s="103" t="n">
+      <c r="F2" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2" s="104" t="n">
         <v>57</v>
       </c>
-      <c r="J2" s="103" t="n">
+      <c r="J2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103" t="s">
-        <v>498</v>
-      </c>
-      <c r="N2" s="103" t="n">
+      <c r="K2" s="105" t="s">
+        <v>500</v>
+      </c>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="N2" s="104" t="n">
         <v>111</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q2" s="103" t="n">
+      <c r="O2" s="104"/>
+      <c r="P2" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q2" s="104" t="n">
         <v>6970</v>
       </c>
       <c r="R2" s="87"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103" t="n">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="F3" s="103" t="s">
+      <c r="C3" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G3" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="H3" s="103" t="s">
-        <v>502</v>
-      </c>
-      <c r="I3" s="103" t="n">
+      <c r="D3" s="105" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="I3" s="104" t="n">
         <v>13</v>
       </c>
-      <c r="J3" s="103" t="n">
+      <c r="J3" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103" t="s">
-        <v>504</v>
-      </c>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103" t="n">
+      <c r="K3" s="105" t="s">
+        <v>506</v>
+      </c>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104" t="n">
         <v>111</v>
       </c>
-      <c r="P3" s="103" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q3" s="103" t="n">
+      <c r="P3" s="104" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q3" s="104" t="n">
         <v>6973</v>
       </c>
       <c r="R3" s="87"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103" t="n">
+      <c r="A4" s="103"/>
+      <c r="B4" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>506</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" s="103" t="s">
+      <c r="C4" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G4" s="103" t="s">
-        <v>508</v>
-      </c>
-      <c r="H4" s="103" t="s">
+      <c r="D4" s="105" t="s">
         <v>509</v>
       </c>
-      <c r="I4" s="103" t="n">
+      <c r="E4" s="105" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>511</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>512</v>
+      </c>
+      <c r="I4" s="104" t="n">
         <v>125</v>
       </c>
-      <c r="J4" s="103" t="n">
+      <c r="J4" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="104" t="s">
-        <v>510</v>
-      </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103" t="s">
-        <v>511</v>
-      </c>
-      <c r="N4" s="103" t="n">
+      <c r="K4" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104" t="s">
+        <v>514</v>
+      </c>
+      <c r="N4" s="104" t="n">
         <v>222</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q4" s="103" t="n">
+      <c r="O4" s="104"/>
+      <c r="P4" s="104" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q4" s="104" t="n">
         <v>6969</v>
       </c>
       <c r="R4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103" t="n">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>513</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="F5" s="103" t="s">
+      <c r="C5" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G5" s="103" t="s">
-        <v>515</v>
-      </c>
-      <c r="H5" s="103" t="s">
+      <c r="D5" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="I5" s="103" t="n">
+      <c r="E5" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="I5" s="104" t="n">
         <v>57</v>
       </c>
-      <c r="J5" s="103" t="n">
+      <c r="J5" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="104" t="s">
-        <v>517</v>
-      </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103" t="s">
-        <v>518</v>
-      </c>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103" t="n">
+      <c r="K5" s="105" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104" t="n">
         <v>222</v>
       </c>
-      <c r="P5" s="103" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q5" s="103" t="n">
+      <c r="P5" s="104" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q5" s="104" t="n">
         <v>6962</v>
       </c>
       <c r="R5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103" t="n">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>520</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>521</v>
-      </c>
-      <c r="F6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G6" s="103" t="s">
-        <v>508</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>522</v>
-      </c>
-      <c r="I6" s="103" t="n">
+      <c r="D6" s="105" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>524</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>511</v>
+      </c>
+      <c r="H6" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="I6" s="104" t="n">
         <v>163</v>
       </c>
-      <c r="J6" s="103" t="n">
+      <c r="J6" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="104" t="s">
-        <v>523</v>
-      </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103" t="s">
-        <v>524</v>
-      </c>
-      <c r="N6" s="103" t="n">
+      <c r="K6" s="105" t="s">
+        <v>526</v>
+      </c>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104" t="s">
+        <v>527</v>
+      </c>
+      <c r="N6" s="104" t="n">
         <v>333</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q6" s="103" t="n">
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q6" s="104" t="n">
         <v>6968</v>
       </c>
       <c r="R6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103" t="n">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>526</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>527</v>
-      </c>
-      <c r="F7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G7" s="103" t="s">
-        <v>528</v>
-      </c>
-      <c r="H7" s="103" t="s">
+      <c r="D7" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="I7" s="103" t="n">
+      <c r="E7" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>532</v>
+      </c>
+      <c r="I7" s="104" t="n">
         <v>11</v>
       </c>
-      <c r="J7" s="103" t="n">
+      <c r="J7" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="104" t="s">
-        <v>530</v>
-      </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103" t="s">
-        <v>531</v>
-      </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103" t="n">
+      <c r="K7" s="105" t="s">
+        <v>533</v>
+      </c>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104" t="n">
         <v>333</v>
       </c>
-      <c r="P7" s="103" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q7" s="103" t="n">
+      <c r="P7" s="104" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q7" s="104" t="n">
         <v>6956</v>
       </c>
       <c r="R7" s="87"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103" t="n">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>533</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>534</v>
-      </c>
-      <c r="F8" s="103" t="s">
+      <c r="C8" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G8" s="103" t="s">
-        <v>535</v>
-      </c>
-      <c r="H8" s="103" t="s">
+      <c r="D8" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="I8" s="103" t="n">
+      <c r="E8" s="105" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>539</v>
+      </c>
+      <c r="I8" s="104" t="n">
         <v>54</v>
       </c>
-      <c r="J8" s="103" t="n">
+      <c r="J8" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="104" t="s">
-        <v>537</v>
-      </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103" t="s">
-        <v>538</v>
-      </c>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q8" s="103" t="n">
+      <c r="K8" s="105" t="s">
+        <v>540</v>
+      </c>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104" t="s">
+        <v>541</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q8" s="104" t="n">
         <v>6963</v>
       </c>
       <c r="R8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103" t="n">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>540</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>541</v>
-      </c>
-      <c r="F9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G9" s="103" t="s">
-        <v>528</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>542</v>
-      </c>
-      <c r="I9" s="103" t="n">
+      <c r="D9" s="105" t="s">
+        <v>543</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>545</v>
+      </c>
+      <c r="I9" s="104" t="n">
         <v>44</v>
       </c>
-      <c r="J9" s="103" t="n">
+      <c r="J9" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="104" t="s">
-        <v>543</v>
-      </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103" t="s">
-        <v>544</v>
-      </c>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q9" s="103" t="n">
+      <c r="K9" s="105" t="s">
+        <v>546</v>
+      </c>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q9" s="104" t="n">
         <v>6957</v>
       </c>
       <c r="R9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103" t="n">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D10" s="104" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" s="103" t="s">
+      <c r="C10" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G10" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>548</v>
-      </c>
-      <c r="I10" s="103" t="n">
+      <c r="D10" s="105" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="I10" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="103" t="n">
+      <c r="J10" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="104" t="s">
-        <v>549</v>
-      </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103" t="s">
-        <v>550</v>
-      </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q10" s="103" t="n">
+      <c r="K10" s="105" t="s">
+        <v>552</v>
+      </c>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q10" s="104" t="n">
         <v>6971</v>
       </c>
       <c r="R10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103" t="n">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>552</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="F11" s="103" t="s">
+      <c r="C11" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="G11" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>553</v>
-      </c>
-      <c r="I11" s="103" t="n">
+      <c r="D11" s="105" t="s">
+        <v>555</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="I11" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="103" t="n">
+      <c r="J11" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="104" t="s">
-        <v>554</v>
-      </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103" t="s">
-        <v>555</v>
-      </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q11" s="103" t="n">
+      <c r="K11" s="105" t="s">
+        <v>557</v>
+      </c>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104" t="s">
+        <v>558</v>
+      </c>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q11" s="104" t="n">
         <v>6972</v>
       </c>
       <c r="R11" s="87"/>
@@ -33444,28 +33606,28 @@
       <c r="R12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100" t="s">
-        <v>557</v>
-      </c>
-      <c r="B13" s="101" t="s">
+      <c r="A13" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="D13" s="101" t="s">
+      <c r="C13" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="G13" s="101" t="s">
+      <c r="F13" s="101" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="101" t="s">
-        <v>560</v>
-      </c>
-      <c r="I13" s="101" t="s">
+      <c r="H13" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="I13" s="102" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="87"/>
@@ -33477,25 +33639,25 @@
       <c r="R13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103" t="n">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="103" t="n">
+      <c r="C14" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="103" t="s">
-        <v>561</v>
-      </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103" t="n">
+      <c r="D14" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="103" t="n">
+      <c r="H14" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="103" t="s">
-        <v>561</v>
+      <c r="I14" s="104" t="s">
+        <v>564</v>
       </c>
       <c r="L14" s="87"/>
       <c r="M14" s="87"/>
@@ -33506,25 +33668,25 @@
       <c r="R14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103" t="n">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="103" t="n">
+      <c r="C15" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="103" t="s">
-        <v>562</v>
-      </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103" t="n">
+      <c r="D15" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="103" t="n">
+      <c r="H15" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="103" t="s">
-        <v>562</v>
+      <c r="I15" s="104" t="s">
+        <v>565</v>
       </c>
       <c r="L15" s="87"/>
       <c r="M15" s="87"/>
@@ -33535,25 +33697,25 @@
       <c r="R15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103" t="n">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="103" t="n">
+      <c r="C16" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="103" t="s">
-        <v>563</v>
-      </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103" t="n">
+      <c r="D16" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="103" t="n">
+      <c r="H16" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="103" t="s">
-        <v>563</v>
+      <c r="I16" s="104" t="s">
+        <v>566</v>
       </c>
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
@@ -33564,25 +33726,25 @@
       <c r="R16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103" t="n">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="103" t="n">
+      <c r="C17" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="103" t="s">
-        <v>564</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103" t="n">
+      <c r="D17" s="104" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="103" t="n">
+      <c r="H17" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="103" t="s">
-        <v>564</v>
+      <c r="I17" s="104" t="s">
+        <v>567</v>
       </c>
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
@@ -33593,25 +33755,25 @@
       <c r="R17" s="87"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103" t="n">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="103" t="n">
+      <c r="C18" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="103" t="s">
-        <v>565</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103" t="n">
+      <c r="D18" s="104" t="s">
+        <v>568</v>
+      </c>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="103" t="n">
+      <c r="H18" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="I18" s="103" t="s">
-        <v>565</v>
+      <c r="I18" s="104" t="s">
+        <v>568</v>
       </c>
       <c r="L18" s="87"/>
       <c r="M18" s="87"/>
@@ -33622,25 +33784,25 @@
       <c r="R18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103" t="n">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="103" t="n">
+      <c r="C19" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="103" t="s">
-        <v>566</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103" t="n">
+      <c r="D19" s="104" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="103" t="n">
+      <c r="H19" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="103" t="s">
-        <v>566</v>
+      <c r="I19" s="104" t="s">
+        <v>569</v>
       </c>
       <c r="L19" s="87"/>
       <c r="M19" s="87"/>
@@ -33651,25 +33813,25 @@
       <c r="R19" s="87"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103" t="n">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="103" t="n">
+      <c r="C20" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="103" t="s">
-        <v>567</v>
-      </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103" t="n">
+      <c r="D20" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="H20" s="103" t="n">
+      <c r="H20" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="I20" s="103" t="s">
-        <v>567</v>
+      <c r="I20" s="104" t="s">
+        <v>570</v>
       </c>
       <c r="L20" s="87"/>
       <c r="M20" s="87"/>
@@ -33680,25 +33842,25 @@
       <c r="R20" s="87"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103" t="n">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="103" t="n">
+      <c r="C21" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="103" t="s">
-        <v>568</v>
-      </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103" t="n">
+      <c r="D21" s="104" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="H21" s="103" t="n">
+      <c r="H21" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="103" t="s">
-        <v>568</v>
+      <c r="I21" s="104" t="s">
+        <v>571</v>
       </c>
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
@@ -33709,25 +33871,25 @@
       <c r="R21" s="87"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103" t="n">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="103" t="n">
+      <c r="C22" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="103" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103" t="n">
+      <c r="D22" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="H22" s="103" t="n">
+      <c r="H22" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="103" t="s">
-        <v>569</v>
+      <c r="I22" s="104" t="s">
+        <v>572</v>
       </c>
       <c r="L22" s="87"/>
       <c r="M22" s="87"/>
@@ -33738,25 +33900,25 @@
       <c r="R22" s="87"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103" t="n">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="103" t="n">
+      <c r="C23" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="103" t="s">
-        <v>570</v>
-      </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103" t="n">
+      <c r="D23" s="104" t="s">
+        <v>573</v>
+      </c>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="H23" s="103" t="n">
+      <c r="H23" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="I23" s="103" t="s">
-        <v>570</v>
+      <c r="I23" s="104" t="s">
+        <v>573</v>
       </c>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -33787,19 +33949,19 @@
       <c r="R24" s="87"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="B25" s="101" t="s">
+      <c r="A25" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="D25" s="101" t="s">
+      <c r="C25" s="102" t="s">
+        <v>575</v>
+      </c>
+      <c r="D25" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="102" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="87"/>
@@ -33816,153 +33978,153 @@
       <c r="R25" s="87"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103" t="n">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="103" t="n">
+      <c r="C26" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="103" t="s">
-        <v>573</v>
-      </c>
-      <c r="E26" s="103" t="s">
-        <v>574</v>
+      <c r="D26" s="104" t="s">
+        <v>576</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103" t="n">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="103" t="n">
+      <c r="C27" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="103" t="s">
-        <v>575</v>
-      </c>
-      <c r="E27" s="103" t="s">
-        <v>576</v>
+      <c r="D27" s="104" t="s">
+        <v>578</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103" t="n">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="103" t="n">
+      <c r="C28" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="103" t="s">
-        <v>577</v>
-      </c>
-      <c r="E28" s="103" t="s">
-        <v>578</v>
+      <c r="D28" s="104" t="s">
+        <v>580</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103" t="n">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="103" t="n">
+      <c r="C29" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="103" t="s">
-        <v>573</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>574</v>
+      <c r="D29" s="104" t="s">
+        <v>576</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103" t="n">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="103" t="n">
+      <c r="C30" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="103" t="s">
-        <v>577</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>578</v>
+      <c r="D30" s="104" t="s">
+        <v>580</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103" t="n">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="103" t="n">
+      <c r="C31" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="103" t="s">
-        <v>575</v>
-      </c>
-      <c r="E31" s="103" t="s">
-        <v>576</v>
+      <c r="D31" s="104" t="s">
+        <v>578</v>
+      </c>
+      <c r="E31" s="104" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103" t="n">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="103" t="n">
+      <c r="C32" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="103" t="s">
-        <v>573</v>
-      </c>
-      <c r="E32" s="103" t="s">
-        <v>574</v>
+      <c r="D32" s="104" t="s">
+        <v>576</v>
+      </c>
+      <c r="E32" s="104" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103" t="n">
+      <c r="A33" s="104"/>
+      <c r="B33" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="C33" s="103" t="n">
+      <c r="C33" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="103" t="s">
-        <v>577</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>578</v>
+      <c r="D33" s="104" t="s">
+        <v>580</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103" t="n">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="103" t="n">
+      <c r="C34" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="D34" s="103" t="s">
-        <v>579</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>580</v>
+      <c r="D34" s="104" t="s">
+        <v>582</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103" t="n">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="103" t="n">
+      <c r="C35" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="D35" s="103" t="s">
-        <v>575</v>
-      </c>
-      <c r="E35" s="103" t="s">
-        <v>576</v>
+      <c r="D35" s="104" t="s">
+        <v>578</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33977,7 +34139,7 @@
       <c r="L37" s="87"/>
       <c r="M37" s="87"/>
       <c r="N37" s="87" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33992,7 +34154,7 @@
       <c r="L38" s="87"/>
       <c r="M38" s="87"/>
       <c r="N38" s="87" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34007,7 +34169,7 @@
       <c r="L39" s="87"/>
       <c r="M39" s="87"/>
       <c r="N39" s="87" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34022,7 +34184,7 @@
       <c r="L40" s="87"/>
       <c r="M40" s="87"/>
       <c r="N40" s="87" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34052,7 +34214,7 @@
       <c r="L42" s="87"/>
       <c r="M42" s="87"/>
       <c r="N42" s="87" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34067,7 +34229,7 @@
       <c r="L43" s="87"/>
       <c r="M43" s="87"/>
       <c r="N43" s="87" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34082,7 +34244,7 @@
       <c r="L44" s="87"/>
       <c r="M44" s="87"/>
       <c r="N44" s="87" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34097,7 +34259,7 @@
       <c r="L45" s="87"/>
       <c r="M45" s="87"/>
       <c r="N45" s="87" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34112,7 +34274,7 @@
       <c r="L46" s="87"/>
       <c r="M46" s="87"/>
       <c r="N46" s="87" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,10 @@
     <sheet name="references" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="buttons" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="form_structure" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="form_handling" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="form_handling" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="form_structure" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="controller" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="pruning" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="permissions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="query" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="performance" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="orm" sheetId="13" state="visible" r:id="rId14"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="582">
   <si>
     <t xml:space="preserve">component</t>
   </si>
@@ -1029,6 +1029,78 @@
     <t xml:space="preserve">class=form-control, name=relations.1.name, id=relations.1.name</t>
   </si>
   <si>
+    <t xml:space="preserve">preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add empty item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add item[id=objectid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add another item (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create (initial), route='create', initial=True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create (repost), route='create', initial=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update (initial), route='update', initial=True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update (repost), route='update', initial=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item[0] from form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update item[1] from form, using prefix (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post-processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style=0 if initial else 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message='' if initial else validation['data']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add form buttons(route)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needs item[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatten item(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prune item (depth=2, clear=T, form=T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prune item (depth=2, clear=F, form=T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear = route==create</t>
+  </si>
+  <si>
     <t xml:space="preserve">domain</t>
   </si>
   <si>
@@ -1227,78 +1299,6 @@
     <t xml:space="preserve">+</t>
   </si>
   <si>
-    <t xml:space="preserve">preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add empty item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add item[id=objectid]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add another item (?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create (initial), route='create', initial=True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create (repost), route='create', initial=False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update (initial), route='update', initial=True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update (repost), route='update', initial=False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update item[0] from form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update item[1] from form, using prefix (?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validation OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post-processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style=0 if initial else 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">message='' if initial else validation['data']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add form buttons(route)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">needs item[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flatten item(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prune item (depth=2, clear=T, form=T)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prune item (depth=2, clear=F, form=T)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clear = route==create</t>
-  </si>
-  <si>
     <t xml:space="preserve">page mode</t>
   </si>
   <si>
@@ -1329,58 +1329,34 @@
     <t xml:space="preserve">render with site template</t>
   </si>
   <si>
-    <t xml:space="preserve">bool enum date time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int float string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text memo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incl [1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excl [2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incl [3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark auto=True in metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formtype=ref, wait for JS extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark auto=True in metadata, formtype=hidden</t>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
   </si>
   <si>
     <t xml:space="preserve">key</t>
@@ -1501,9 +1477,6 @@
   </si>
   <si>
     <t xml:space="preserve">/var=/ SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
   </si>
   <si>
     <t xml:space="preserve">place</t>
@@ -1831,16 +1804,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY/DD/MM"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/dd/mm"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="@"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2077,6 +2051,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFE46C0A"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE46C0A"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFDD4814"/>
@@ -2107,37 +2103,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFE46C0A"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE46C0A"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00863D"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2166,7 +2133,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2188,7 +2155,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FF93CDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -2223,6 +2190,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF93CDDD"/>
+        <bgColor rgb="FF87D1D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF33CC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFEF413D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
@@ -2230,7 +2215,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF93CDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -2299,7 +2284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2476,7 +2461,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2616,18 +2601,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2638,6 +2611,18 @@
     </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2652,12 +2637,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2668,23 +2669,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2696,23 +2693,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2720,18 +2717,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2748,13 +2745,13 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF00863D"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FF93CDDD"/>
       <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FFFFFBCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFF3715A"/>
       <rgbColor rgb="FF0066CC"/>
@@ -2797,27 +2794,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31722,17 +31719,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.53"/>
@@ -31740,226 +31737,258 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="49" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="88" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>428</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="85" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" s="85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="A2" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>163</v>
+      </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="G3" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="A3" s="90" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>430</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="G4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="A4" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="A5" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="A6" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="A7" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="A8" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="88" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="G11" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="90" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="G13" s="90" t="s">
+        <v>427</v>
+      </c>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="G14" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="G15" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" s="93"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="G16" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="G17" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="G18" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+    </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -31971,36 +32000,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+        <v>435</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
         <v>185</v>
@@ -32012,13 +32039,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>58</v>
@@ -32036,10 +32063,10 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>62</v>
@@ -32057,10 +32084,10 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>64</v>
@@ -32070,7 +32097,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="29" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -32093,13 +32120,13 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
         <v>185</v>
@@ -32114,7 +32141,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
@@ -32133,7 +32160,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>62</v>
@@ -32152,16 +32179,16 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="29" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -32172,10 +32199,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -32191,10 +32218,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -32210,7 +32237,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -32237,13 +32264,13 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
+        <v>435</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
         <v>185</v>
@@ -32255,13 +32282,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
@@ -32279,10 +32306,10 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>62</v>
@@ -32300,10 +32327,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>64</v>
@@ -32313,7 +32340,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="29" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -32336,13 +32363,13 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C19" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
         <v>185</v>
@@ -32357,7 +32384,7 @@
         <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -32376,7 +32403,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -32395,16 +32422,16 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="29" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -32415,10 +32442,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -32434,10 +32461,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -32453,7 +32480,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -32491,518 +32518,511 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="P1" s="94"/>
+      <c r="B1" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98" t="s">
+        <v>456</v>
+      </c>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94" t="s">
-        <v>469</v>
-      </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94" t="s">
-        <v>470</v>
-      </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="P2" s="94"/>
+      <c r="A2" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="P2" s="98"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="K3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="M3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="N3" s="93" t="s">
-        <v>472</v>
-      </c>
-      <c r="O3" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="P3" s="93" t="s">
-        <v>472</v>
+      <c r="A3" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="M3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="P3" s="97" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="87" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="95" t="n">
+        <v>465</v>
+      </c>
+      <c r="B4" s="99" t="n">
         <v>0.016424</v>
       </c>
-      <c r="C4" s="95" t="n">
+      <c r="C4" s="99" t="n">
         <v>0.001563</v>
       </c>
-      <c r="D4" s="96" t="n">
+      <c r="D4" s="100" t="n">
         <f aca="false">C4/B4</f>
         <v>0.0951656113005358</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="99" t="n">
         <v>0.000453</v>
       </c>
-      <c r="F4" s="96" t="n">
+      <c r="F4" s="100" t="n">
         <f aca="false">E4/B4</f>
         <v>0.0275815879201169</v>
       </c>
-      <c r="G4" s="97" t="n">
+      <c r="G4" s="101" t="n">
         <v>0.048995</v>
       </c>
-      <c r="H4" s="96" t="n">
+      <c r="H4" s="100" t="n">
         <f aca="false">G4/B4</f>
         <v>2.98313443740867</v>
       </c>
-      <c r="I4" s="95" t="n">
+      <c r="I4" s="99" t="n">
         <v>0.102591</v>
       </c>
-      <c r="J4" s="98" t="n">
+      <c r="J4" s="102" t="n">
         <f aca="false">I4/B4</f>
         <v>6.24640769605456</v>
       </c>
-      <c r="K4" s="95" t="n">
+      <c r="K4" s="99" t="n">
         <v>0.047733</v>
       </c>
-      <c r="L4" s="98" t="n">
+      <c r="L4" s="102" t="n">
         <f aca="false">K4/B4</f>
         <v>2.90629566488066</v>
       </c>
       <c r="M4" s="87" t="n">
         <v>0.017323</v>
       </c>
-      <c r="N4" s="98" t="n">
+      <c r="N4" s="102" t="n">
         <f aca="false">M4/B4</f>
         <v>1.05473697028738</v>
       </c>
-      <c r="O4" s="95" t="n">
+      <c r="O4" s="99" t="n">
         <v>0.076974</v>
       </c>
-      <c r="P4" s="98" t="n">
+      <c r="P4" s="102" t="n">
         <f aca="false">O4/B4</f>
         <v>4.68667803214808</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="87" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" s="95" t="n">
+        <v>466</v>
+      </c>
+      <c r="B5" s="99" t="n">
         <v>0.017911</v>
       </c>
-      <c r="C5" s="95" t="n">
+      <c r="C5" s="99" t="n">
         <v>0.001212</v>
       </c>
-      <c r="D5" s="96" t="n">
+      <c r="D5" s="100" t="n">
         <f aca="false">C5/B5</f>
         <v>0.0676679135726648</v>
       </c>
-      <c r="E5" s="95" t="n">
+      <c r="E5" s="99" t="n">
         <v>0.000548</v>
       </c>
-      <c r="F5" s="96" t="n">
+      <c r="F5" s="100" t="n">
         <f aca="false">E5/B5</f>
         <v>0.0305957232985316</v>
       </c>
-      <c r="G5" s="97" t="n">
+      <c r="G5" s="101" t="n">
         <v>0.008847</v>
       </c>
-      <c r="H5" s="96" t="n">
+      <c r="H5" s="100" t="n">
         <f aca="false">G5/B5</f>
         <v>0.493942270113338</v>
       </c>
-      <c r="I5" s="95" t="n">
+      <c r="I5" s="99" t="n">
         <v>0.224636</v>
       </c>
-      <c r="J5" s="98" t="n">
+      <c r="J5" s="102" t="n">
         <f aca="false">I5/B5</f>
         <v>12.5417899614762</v>
       </c>
-      <c r="K5" s="95" t="n">
+      <c r="K5" s="99" t="n">
         <v>0.118356</v>
       </c>
-      <c r="L5" s="98" t="n">
+      <c r="L5" s="102" t="n">
         <f aca="false">K5/B5</f>
         <v>6.60800625314053</v>
       </c>
       <c r="M5" s="87" t="n">
         <v>0.022906</v>
       </c>
-      <c r="N5" s="98" t="n">
+      <c r="N5" s="102" t="n">
         <f aca="false">M5/B5</f>
         <v>1.27887890123388</v>
       </c>
-      <c r="O5" s="95" t="n">
+      <c r="O5" s="99" t="n">
         <v>2.457824</v>
       </c>
-      <c r="P5" s="98" t="n">
+      <c r="P5" s="102" t="n">
         <f aca="false">O5/B5</f>
         <v>137.224275584836</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="95" t="n">
+        <v>467</v>
+      </c>
+      <c r="B6" s="99" t="n">
         <v>0.062072</v>
       </c>
-      <c r="C6" s="97" t="n">
+      <c r="C6" s="101" t="n">
         <v>0.00076</v>
       </c>
-      <c r="D6" s="96" t="n">
+      <c r="D6" s="100" t="n">
         <f aca="false">C6/B6</f>
         <v>0.0122438458564248</v>
       </c>
-      <c r="E6" s="97" t="n">
+      <c r="E6" s="101" t="n">
         <v>0.00037</v>
       </c>
-      <c r="F6" s="96" t="n">
+      <c r="F6" s="100" t="n">
         <f aca="false">E6/B6</f>
         <v>0.00596081969325944</v>
       </c>
-      <c r="G6" s="97" t="n">
+      <c r="G6" s="101" t="n">
         <v>0.079314</v>
       </c>
-      <c r="H6" s="96" t="n">
+      <c r="H6" s="100" t="n">
         <f aca="false">G6/B6</f>
         <v>1.27777419770589</v>
       </c>
-      <c r="I6" s="95" t="n">
+      <c r="I6" s="99" t="n">
         <v>0.106703</v>
       </c>
-      <c r="J6" s="98" t="n">
+      <c r="J6" s="102" t="n">
         <f aca="false">I6/B6</f>
         <v>1.71901984791855</v>
       </c>
-      <c r="K6" s="95" t="n">
+      <c r="K6" s="99" t="n">
         <v>0.102644</v>
       </c>
-      <c r="L6" s="98" t="n">
+      <c r="L6" s="102" t="n">
         <f aca="false">K6/B6</f>
         <v>1.65362804485114</v>
       </c>
       <c r="M6" s="87" t="n">
         <v>0.052501</v>
       </c>
-      <c r="N6" s="98" t="n">
+      <c r="N6" s="102" t="n">
         <f aca="false">M6/B6</f>
         <v>0.845808093826524</v>
       </c>
-      <c r="O6" s="95" t="n">
+      <c r="O6" s="99" t="n">
         <v>2.548866</v>
       </c>
-      <c r="P6" s="98" t="n">
+      <c r="P6" s="102" t="n">
         <f aca="false">O6/B6</f>
         <v>41.0630558061606</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" s="95" t="n">
+        <v>468</v>
+      </c>
+      <c r="B7" s="99" t="n">
         <v>0.027084</v>
       </c>
-      <c r="C7" s="95" t="n">
+      <c r="C7" s="99" t="n">
         <v>0.000668</v>
       </c>
-      <c r="D7" s="96" t="n">
+      <c r="D7" s="100" t="n">
         <f aca="false">C7/B7</f>
         <v>0.0246640082705656</v>
       </c>
-      <c r="E7" s="95" t="n">
+      <c r="E7" s="99" t="n">
         <v>0.000314</v>
       </c>
-      <c r="F7" s="96" t="n">
+      <c r="F7" s="100" t="n">
         <f aca="false">E7/B7</f>
         <v>0.0115935607738886</v>
       </c>
-      <c r="G7" s="97" t="n">
+      <c r="G7" s="101" t="n">
         <v>0.012179</v>
       </c>
-      <c r="H7" s="96" t="n">
+      <c r="H7" s="100" t="n">
         <f aca="false">G7/B7</f>
         <v>0.449675084920987</v>
       </c>
-      <c r="I7" s="95" t="n">
+      <c r="I7" s="99" t="n">
         <v>0.150609</v>
       </c>
-      <c r="J7" s="98" t="n">
+      <c r="J7" s="102" t="n">
         <f aca="false">I7/B7</f>
         <v>5.56081081081081</v>
       </c>
-      <c r="K7" s="95" t="n">
+      <c r="K7" s="99" t="n">
         <v>0.056508</v>
       </c>
-      <c r="L7" s="98" t="n">
+      <c r="L7" s="102" t="n">
         <f aca="false">K7/B7</f>
         <v>2.08639787328312</v>
       </c>
       <c r="M7" s="87" t="n">
         <v>0.033761</v>
       </c>
-      <c r="N7" s="98" t="n">
+      <c r="N7" s="102" t="n">
         <f aca="false">M7/B7</f>
         <v>1.24652931620145</v>
       </c>
-      <c r="O7" s="95" t="n">
+      <c r="O7" s="99" t="n">
         <v>2.274458</v>
       </c>
-      <c r="P7" s="98" t="n">
+      <c r="P7" s="102" t="n">
         <f aca="false">O7/B7</f>
         <v>83.9779205434943</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="87" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="95" t="n">
+        <v>469</v>
+      </c>
+      <c r="B8" s="99" t="n">
         <v>0.137918</v>
       </c>
-      <c r="C8" s="95" t="n">
+      <c r="C8" s="99" t="n">
         <v>0.000694</v>
       </c>
-      <c r="D8" s="96" t="n">
+      <c r="D8" s="100" t="n">
         <f aca="false">C8/B8</f>
         <v>0.0050319755216868</v>
       </c>
-      <c r="E8" s="95" t="n">
+      <c r="E8" s="99" t="n">
         <v>0.000297</v>
       </c>
-      <c r="F8" s="96" t="n">
+      <c r="F8" s="100" t="n">
         <f aca="false">E8/B8</f>
         <v>0.00215345350135588</v>
       </c>
-      <c r="G8" s="95" t="n">
+      <c r="G8" s="99" t="n">
         <v>0.045261</v>
       </c>
-      <c r="H8" s="96" t="n">
+      <c r="H8" s="100" t="n">
         <f aca="false">G8/B8</f>
         <v>0.328173262373294</v>
       </c>
-      <c r="I8" s="95" t="n">
+      <c r="I8" s="99" t="n">
         <v>0.343385</v>
       </c>
-      <c r="J8" s="98" t="n">
+      <c r="J8" s="102" t="n">
         <f aca="false">I8/B8</f>
         <v>2.48977653388245</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="87" t="n">
         <v>0.172413</v>
       </c>
-      <c r="N8" s="98" t="n">
+      <c r="N8" s="102" t="n">
         <f aca="false">M8/B8</f>
         <v>1.25011238562044</v>
       </c>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="87" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B9" s="99" t="n">
         <v>0.360714</v>
       </c>
-      <c r="C9" s="95" t="n">
+      <c r="C9" s="99" t="n">
         <v>0.000681</v>
       </c>
-      <c r="D9" s="96" t="n">
+      <c r="D9" s="100" t="n">
         <f aca="false">C9/B9</f>
         <v>0.0018879222874632</v>
       </c>
-      <c r="E9" s="95" t="n">
+      <c r="E9" s="99" t="n">
         <v>0.000271</v>
       </c>
-      <c r="F9" s="96" t="n">
+      <c r="F9" s="100" t="n">
         <f aca="false">E9/B9</f>
         <v>0.000751287723792256</v>
       </c>
-      <c r="G9" s="95" t="n">
+      <c r="G9" s="99" t="n">
         <v>0.148961</v>
       </c>
-      <c r="H9" s="96" t="n">
+      <c r="H9" s="100" t="n">
         <f aca="false">G9/B9</f>
         <v>0.412961515217042</v>
       </c>
-      <c r="I9" s="95" t="n">
+      <c r="I9" s="99" t="n">
         <v>31.425577</v>
       </c>
-      <c r="J9" s="98" t="n">
+      <c r="J9" s="102" t="n">
         <f aca="false">I9/B9</f>
         <v>87.1204804914697</v>
       </c>
-      <c r="K9" s="95" t="n">
+      <c r="K9" s="99" t="n">
         <v>1.901056</v>
       </c>
-      <c r="L9" s="98" t="n">
+      <c r="L9" s="102" t="n">
         <f aca="false">K9/B9</f>
         <v>5.27025843188787</v>
       </c>
       <c r="M9" s="87" t="n">
         <v>1.688972</v>
       </c>
-      <c r="N9" s="98" t="n">
+      <c r="N9" s="102" t="n">
         <f aca="false">M9/B9</f>
         <v>4.6823023226157</v>
       </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="87" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" s="95" t="n">
+        <v>471</v>
+      </c>
+      <c r="B10" s="99" t="n">
         <v>0.410004</v>
       </c>
-      <c r="C10" s="95" t="n">
+      <c r="C10" s="99" t="n">
         <v>0.00067</v>
       </c>
-      <c r="D10" s="96" t="n">
+      <c r="D10" s="100" t="n">
         <f aca="false">C10/B10</f>
         <v>0.00163413039872782</v>
       </c>
-      <c r="E10" s="95" t="n">
+      <c r="E10" s="99" t="n">
         <v>0.000268</v>
       </c>
-      <c r="F10" s="96" t="n">
+      <c r="F10" s="100" t="n">
         <f aca="false">E10/B10</f>
         <v>0.000653652159491127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="87" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>481</v>
-      </c>
-      <c r="D12" s="100"/>
+        <v>473</v>
+      </c>
+      <c r="D12" s="104"/>
       <c r="E12" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="F12" s="100"/>
+        <v>474</v>
+      </c>
+      <c r="F12" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -33028,7 +33048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -33038,7 +33058,7 @@
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.68"/>
@@ -33051,536 +33071,533 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>477</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" s="106" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1" s="106" t="s">
+        <v>481</v>
+      </c>
+      <c r="O1" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="P1" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="102" t="s">
+      <c r="Q1" s="106" t="s">
         <v>484</v>
-      </c>
-      <c r="H1" s="102" t="s">
-        <v>485</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>486</v>
-      </c>
-      <c r="J1" s="102" t="s">
-        <v>487</v>
-      </c>
-      <c r="K1" s="102" t="s">
-        <v>488</v>
-      </c>
-      <c r="L1" s="102" t="s">
-        <v>489</v>
-      </c>
-      <c r="M1" s="102" t="s">
-        <v>343</v>
-      </c>
-      <c r="N1" s="102" t="s">
-        <v>490</v>
-      </c>
-      <c r="O1" s="102" t="s">
-        <v>491</v>
-      </c>
-      <c r="P1" s="102" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q1" s="102" t="s">
-        <v>493</v>
       </c>
       <c r="R1" s="87"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104" t="n">
+      <c r="A2" s="90"/>
+      <c r="B2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="105" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>496</v>
-      </c>
-      <c r="F2" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="H2" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="I2" s="104" t="n">
+      <c r="C2" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>487</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="107" t="n">
         <v>57</v>
       </c>
-      <c r="J2" s="104" t="n">
+      <c r="J2" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="105" t="s">
-        <v>500</v>
-      </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="N2" s="104" t="n">
+      <c r="K2" s="108" t="s">
+        <v>491</v>
+      </c>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="N2" s="107" t="n">
         <v>111</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q2" s="104" t="n">
+      <c r="O2" s="107"/>
+      <c r="P2" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q2" s="107" t="n">
         <v>6970</v>
       </c>
       <c r="R2" s="87"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104" t="n">
+      <c r="A3" s="90"/>
+      <c r="B3" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="108" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="105" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>504</v>
-      </c>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="108" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" s="107" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="107" t="s">
         <v>498</v>
       </c>
-      <c r="H3" s="104" t="s">
-        <v>505</v>
-      </c>
-      <c r="I3" s="104" t="n">
-        <v>13</v>
-      </c>
-      <c r="J3" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="105" t="s">
-        <v>506</v>
-      </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104" t="n">
+      <c r="N3" s="107"/>
+      <c r="O3" s="107" t="n">
         <v>111</v>
       </c>
-      <c r="P3" s="104" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q3" s="104" t="n">
+      <c r="P3" s="107" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q3" s="107" t="n">
         <v>6973</v>
       </c>
       <c r="R3" s="87"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104" t="n">
+      <c r="A4" s="90"/>
+      <c r="B4" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>509</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>510</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" s="104" t="s">
-        <v>511</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>512</v>
-      </c>
-      <c r="I4" s="104" t="n">
+      <c r="C4" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>502</v>
+      </c>
+      <c r="H4" s="107" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" s="107" t="n">
         <v>125</v>
       </c>
-      <c r="J4" s="104" t="n">
+      <c r="J4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="105" t="s">
-        <v>513</v>
-      </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="N4" s="104" t="n">
+      <c r="K4" s="108" t="s">
+        <v>504</v>
+      </c>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107" t="s">
+        <v>505</v>
+      </c>
+      <c r="N4" s="107" t="n">
         <v>222</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q4" s="104" t="n">
+      <c r="O4" s="107"/>
+      <c r="P4" s="107" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q4" s="107" t="n">
         <v>6969</v>
       </c>
       <c r="R4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104" t="n">
+      <c r="A5" s="90"/>
+      <c r="B5" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>518</v>
-      </c>
-      <c r="H5" s="104" t="s">
-        <v>519</v>
-      </c>
-      <c r="I5" s="104" t="n">
+      <c r="C5" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>508</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="107" t="n">
         <v>57</v>
       </c>
-      <c r="J5" s="104" t="n">
+      <c r="J5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="105" t="s">
-        <v>520</v>
-      </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104" t="s">
-        <v>521</v>
-      </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104" t="n">
+      <c r="K5" s="108" t="s">
+        <v>511</v>
+      </c>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107" t="s">
+        <v>512</v>
+      </c>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107" t="n">
         <v>222</v>
       </c>
-      <c r="P5" s="104" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q5" s="104" t="n">
+      <c r="P5" s="107" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="107" t="n">
         <v>6962</v>
       </c>
       <c r="R5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104" t="n">
+      <c r="A6" s="90"/>
+      <c r="B6" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="F6" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>511</v>
-      </c>
-      <c r="H6" s="104" t="s">
-        <v>525</v>
-      </c>
-      <c r="I6" s="104" t="n">
+      <c r="C6" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>502</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>516</v>
+      </c>
+      <c r="I6" s="107" t="n">
         <v>163</v>
       </c>
-      <c r="J6" s="104" t="n">
+      <c r="J6" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="105" t="s">
-        <v>526</v>
-      </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104" t="s">
-        <v>527</v>
-      </c>
-      <c r="N6" s="104" t="n">
+      <c r="K6" s="108" t="s">
+        <v>517</v>
+      </c>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107" t="s">
+        <v>518</v>
+      </c>
+      <c r="N6" s="107" t="n">
         <v>333</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q6" s="104" t="n">
+      <c r="O6" s="107"/>
+      <c r="P6" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q6" s="107" t="n">
         <v>6968</v>
       </c>
       <c r="R6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104" t="n">
+      <c r="A7" s="90"/>
+      <c r="B7" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="F7" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G7" s="104" t="s">
-        <v>531</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>532</v>
-      </c>
-      <c r="I7" s="104" t="n">
+      <c r="C7" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="107" t="s">
+        <v>523</v>
+      </c>
+      <c r="I7" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J7" s="104" t="n">
+      <c r="J7" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104" t="s">
-        <v>534</v>
-      </c>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104" t="n">
+      <c r="K7" s="108" t="s">
+        <v>524</v>
+      </c>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107" t="n">
         <v>333</v>
       </c>
-      <c r="P7" s="104" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q7" s="104" t="n">
+      <c r="P7" s="107" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q7" s="107" t="n">
         <v>6956</v>
       </c>
       <c r="R7" s="87"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104" t="n">
+      <c r="A8" s="90"/>
+      <c r="B8" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>537</v>
-      </c>
-      <c r="F8" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>539</v>
-      </c>
-      <c r="I8" s="104" t="n">
+      <c r="C8" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>529</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>530</v>
+      </c>
+      <c r="I8" s="107" t="n">
         <v>54</v>
       </c>
-      <c r="J8" s="104" t="n">
+      <c r="J8" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="105" t="s">
-        <v>540</v>
-      </c>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104" t="s">
-        <v>541</v>
-      </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q8" s="104" t="n">
+      <c r="K8" s="108" t="s">
+        <v>531</v>
+      </c>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107" t="s">
+        <v>532</v>
+      </c>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q8" s="107" t="n">
         <v>6963</v>
       </c>
       <c r="R8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104" t="n">
+      <c r="A9" s="90"/>
+      <c r="B9" s="107" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>543</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>544</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>531</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>545</v>
-      </c>
-      <c r="I9" s="104" t="n">
+      <c r="C9" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>534</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>535</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>522</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>536</v>
+      </c>
+      <c r="I9" s="107" t="n">
         <v>44</v>
       </c>
-      <c r="J9" s="104" t="n">
+      <c r="J9" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="105" t="s">
-        <v>546</v>
-      </c>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104" t="s">
-        <v>547</v>
-      </c>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q9" s="104" t="n">
+      <c r="K9" s="108" t="s">
+        <v>537</v>
+      </c>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107" t="s">
+        <v>538</v>
+      </c>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q9" s="107" t="n">
         <v>6957</v>
       </c>
       <c r="R9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104" t="n">
+      <c r="A10" s="90"/>
+      <c r="B10" s="107" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>550</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="H10" s="104" t="s">
-        <v>551</v>
-      </c>
-      <c r="I10" s="104" t="n">
+      <c r="C10" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>541</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="I10" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="104" t="n">
+      <c r="J10" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="105" t="s">
-        <v>552</v>
-      </c>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104" t="s">
-        <v>553</v>
-      </c>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q10" s="104" t="n">
+      <c r="K10" s="108" t="s">
+        <v>543</v>
+      </c>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107" t="s">
+        <v>544</v>
+      </c>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q10" s="107" t="n">
         <v>6971</v>
       </c>
       <c r="R10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104" t="n">
+      <c r="A11" s="90"/>
+      <c r="B11" s="107" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="104" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>555</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>504</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" s="104" t="s">
-        <v>556</v>
-      </c>
-      <c r="I11" s="104" t="n">
+      <c r="C11" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>495</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>547</v>
+      </c>
+      <c r="I11" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="104" t="n">
+      <c r="J11" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="105" t="s">
-        <v>557</v>
-      </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104" t="s">
-        <v>558</v>
-      </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q11" s="104" t="n">
+      <c r="K11" s="108" t="s">
+        <v>548</v>
+      </c>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107" t="s">
+        <v>549</v>
+      </c>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q11" s="107" t="n">
         <v>6972</v>
       </c>
       <c r="R11" s="87"/>
@@ -33606,28 +33623,28 @@
       <c r="R12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="s">
-        <v>560</v>
-      </c>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="105" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="102" t="s">
-        <v>561</v>
-      </c>
-      <c r="D13" s="102" t="s">
+      <c r="C13" s="106" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="101" t="s">
-        <v>562</v>
-      </c>
-      <c r="G13" s="102" t="s">
+      <c r="F13" s="105" t="s">
+        <v>553</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="102" t="s">
-        <v>563</v>
-      </c>
-      <c r="I13" s="102" t="s">
+      <c r="H13" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="I13" s="106" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="87"/>
@@ -33639,25 +33656,25 @@
       <c r="R13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104" t="n">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="104" t="n">
+      <c r="C14" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="104" t="s">
-        <v>564</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104" t="n">
+      <c r="D14" s="107" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="104" t="n">
+      <c r="H14" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="104" t="s">
-        <v>564</v>
+      <c r="I14" s="107" t="s">
+        <v>555</v>
       </c>
       <c r="L14" s="87"/>
       <c r="M14" s="87"/>
@@ -33668,25 +33685,25 @@
       <c r="R14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104" t="n">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="104" t="n">
+      <c r="C15" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104" t="n">
+      <c r="D15" s="107" t="s">
+        <v>556</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="104" t="n">
+      <c r="H15" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="104" t="s">
-        <v>565</v>
+      <c r="I15" s="107" t="s">
+        <v>556</v>
       </c>
       <c r="L15" s="87"/>
       <c r="M15" s="87"/>
@@ -33697,25 +33714,25 @@
       <c r="R15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104" t="n">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="n">
+      <c r="C16" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="104" t="s">
-        <v>566</v>
-      </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104" t="n">
+      <c r="D16" s="107" t="s">
+        <v>557</v>
+      </c>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="104" t="n">
+      <c r="H16" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="104" t="s">
-        <v>566</v>
+      <c r="I16" s="107" t="s">
+        <v>557</v>
       </c>
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
@@ -33726,25 +33743,25 @@
       <c r="R16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104" t="n">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="104" t="n">
+      <c r="C17" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="104" t="s">
-        <v>567</v>
-      </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104" t="n">
+      <c r="D17" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="104" t="n">
+      <c r="H17" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="104" t="s">
-        <v>567</v>
+      <c r="I17" s="107" t="s">
+        <v>558</v>
       </c>
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
@@ -33755,25 +33772,25 @@
       <c r="R17" s="87"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104" t="n">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="104" t="n">
+      <c r="C18" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="104" t="s">
-        <v>568</v>
-      </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104" t="n">
+      <c r="D18" s="107" t="s">
+        <v>559</v>
+      </c>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="104" t="n">
+      <c r="H18" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I18" s="104" t="s">
-        <v>568</v>
+      <c r="I18" s="107" t="s">
+        <v>559</v>
       </c>
       <c r="L18" s="87"/>
       <c r="M18" s="87"/>
@@ -33784,25 +33801,25 @@
       <c r="R18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104" t="n">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="104" t="n">
+      <c r="C19" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="104" t="s">
-        <v>569</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104" t="n">
+      <c r="D19" s="107" t="s">
+        <v>560</v>
+      </c>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="104" t="n">
+      <c r="H19" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="104" t="s">
-        <v>569</v>
+      <c r="I19" s="107" t="s">
+        <v>560</v>
       </c>
       <c r="L19" s="87"/>
       <c r="M19" s="87"/>
@@ -33813,25 +33830,25 @@
       <c r="R19" s="87"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104" t="n">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="104" t="n">
+      <c r="C20" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="104" t="s">
-        <v>570</v>
-      </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104" t="n">
+      <c r="D20" s="107" t="s">
+        <v>561</v>
+      </c>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="H20" s="104" t="n">
+      <c r="H20" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="I20" s="104" t="s">
-        <v>570</v>
+      <c r="I20" s="107" t="s">
+        <v>561</v>
       </c>
       <c r="L20" s="87"/>
       <c r="M20" s="87"/>
@@ -33842,25 +33859,25 @@
       <c r="R20" s="87"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104" t="n">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="104" t="n">
+      <c r="C21" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="104" t="s">
-        <v>571</v>
-      </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104" t="n">
+      <c r="D21" s="107" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107" t="n">
         <v>7</v>
       </c>
-      <c r="H21" s="104" t="n">
+      <c r="H21" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="104" t="s">
-        <v>571</v>
+      <c r="I21" s="107" t="s">
+        <v>562</v>
       </c>
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
@@ -33871,25 +33888,25 @@
       <c r="R21" s="87"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104" t="n">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="104" t="n">
+      <c r="C22" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="104" t="s">
-        <v>572</v>
-      </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104" t="n">
+      <c r="D22" s="107" t="s">
+        <v>563</v>
+      </c>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107" t="n">
         <v>8</v>
       </c>
-      <c r="H22" s="104" t="n">
+      <c r="H22" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="104" t="s">
-        <v>572</v>
+      <c r="I22" s="107" t="s">
+        <v>563</v>
       </c>
       <c r="L22" s="87"/>
       <c r="M22" s="87"/>
@@ -33900,25 +33917,25 @@
       <c r="R22" s="87"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104" t="n">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="104" t="n">
+      <c r="C23" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="104" t="s">
-        <v>573</v>
-      </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104" t="n">
+      <c r="D23" s="107" t="s">
+        <v>564</v>
+      </c>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107" t="n">
         <v>9</v>
       </c>
-      <c r="H23" s="104" t="n">
+      <c r="H23" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="I23" s="104" t="s">
-        <v>573</v>
+      <c r="I23" s="107" t="s">
+        <v>564</v>
       </c>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -33949,19 +33966,19 @@
       <c r="R24" s="87"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="B25" s="102" t="s">
+      <c r="A25" s="105" t="s">
+        <v>565</v>
+      </c>
+      <c r="B25" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>575</v>
-      </c>
-      <c r="D25" s="102" t="s">
+      <c r="C25" s="106" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="106" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="87"/>
@@ -33978,153 +33995,153 @@
       <c r="R25" s="87"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104" t="n">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="104" t="n">
+      <c r="C26" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="104" t="s">
-        <v>576</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>577</v>
+      <c r="D26" s="107" t="s">
+        <v>567</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104" t="n">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="104" t="n">
+      <c r="C27" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="104" t="s">
-        <v>578</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>579</v>
+      <c r="D27" s="107" t="s">
+        <v>569</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104" t="n">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="104" t="n">
+      <c r="C28" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>581</v>
+      <c r="D28" s="107" t="s">
+        <v>571</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104" t="n">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="104" t="n">
+      <c r="C29" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="D29" s="104" t="s">
-        <v>576</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>577</v>
+      <c r="D29" s="107" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104" t="n">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="104" t="n">
+      <c r="C30" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>581</v>
+      <c r="D30" s="107" t="s">
+        <v>571</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104" t="n">
+      <c r="A31" s="107"/>
+      <c r="B31" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="104" t="n">
+      <c r="C31" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="104" t="s">
-        <v>578</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>579</v>
+      <c r="D31" s="107" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104" t="n">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="104" t="n">
+      <c r="C32" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="104" t="s">
-        <v>576</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>577</v>
+      <c r="D32" s="107" t="s">
+        <v>567</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104" t="n">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107" t="n">
         <v>7</v>
       </c>
-      <c r="C33" s="104" t="n">
+      <c r="C33" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>581</v>
+      <c r="D33" s="107" t="s">
+        <v>571</v>
+      </c>
+      <c r="E33" s="107" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104" t="n">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="104" t="n">
+      <c r="C34" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="D34" s="104" t="s">
-        <v>582</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>583</v>
+      <c r="D34" s="107" t="s">
+        <v>573</v>
+      </c>
+      <c r="E34" s="107" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104" t="n">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="104" t="n">
+      <c r="C35" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="D35" s="104" t="s">
-        <v>578</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>579</v>
+      <c r="D35" s="107" t="s">
+        <v>569</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34139,7 +34156,7 @@
       <c r="L37" s="87"/>
       <c r="M37" s="87"/>
       <c r="N37" s="87" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34154,7 +34171,7 @@
       <c r="L38" s="87"/>
       <c r="M38" s="87"/>
       <c r="N38" s="87" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34169,7 +34186,7 @@
       <c r="L39" s="87"/>
       <c r="M39" s="87"/>
       <c r="N39" s="87" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34184,7 +34201,7 @@
       <c r="L40" s="87"/>
       <c r="M40" s="87"/>
       <c r="N40" s="87" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34214,7 +34231,7 @@
       <c r="L42" s="87"/>
       <c r="M42" s="87"/>
       <c r="N42" s="87" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34229,7 +34246,7 @@
       <c r="L43" s="87"/>
       <c r="M43" s="87"/>
       <c r="N43" s="87" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34244,7 +34261,7 @@
       <c r="L44" s="87"/>
       <c r="M44" s="87"/>
       <c r="N44" s="87" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34259,7 +34276,7 @@
       <c r="L45" s="87"/>
       <c r="M45" s="87"/>
       <c r="N45" s="87" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34274,7 +34291,7 @@
       <c r="L46" s="87"/>
       <c r="M46" s="87"/>
       <c r="N46" s="87" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -34289,7 +34306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -34299,7 +34316,7 @@
       <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -34313,7 +34330,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35069,17 +35085,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.07"/>
@@ -35093,7 +35109,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35402,17 +35418,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.94"/>
@@ -35423,7 +35439,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35699,7 +35715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -35709,7 +35725,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.43"/>
@@ -35726,7 +35742,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="38" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="38" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="3" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="3" width="9.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="3" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36561,7 +36577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -36571,7 +36587,7 @@
       <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.09"/>
@@ -36589,7 +36605,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="10.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38309,7 +38325,362 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -38319,7 +38690,7 @@
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.71"/>
@@ -38332,353 +38703,353 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="D1" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" s="75"/>
+      <c r="G1" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="78"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="77" t="s">
+      <c r="C2" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="79" t="n">
+      <c r="B3" s="82" t="n">
         <v>42625</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77" t="s">
+      <c r="C3" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77" t="s">
+      <c r="B4" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="A5" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80" t="n">
+      <c r="B6" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77" t="s">
+      <c r="C6" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="78" t="s">
+      <c r="A7" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="77" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G8" s="77" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="77" t="s">
+      <c r="A9" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="79" t="n">
+      <c r="A10" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="82" t="n">
         <v>0.480555555555556</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" s="77" t="s">
+      <c r="C10" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" s="77" t="s">
+      <c r="A11" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="D13" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="80" t="n">
+      <c r="B14" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="77" t="s">
+      <c r="C14" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -38702,13 +39073,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="F16" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -38720,13 +39091,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="77"/>
+      <c r="F17" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="80"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -38753,17 +39124,17 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -38775,17 +39146,17 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -38796,32 +39167,32 @@
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -38874,32 +39245,32 @@
         <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="L24" s="3"/>
     </row>
@@ -38908,7 +39279,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>64</v>
@@ -38918,7 +39289,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="G25" s="15" t="n">
         <v>1919</v>
@@ -38928,7 +39299,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K25" s="15" t="n">
         <v>1919</v>
@@ -38940,32 +39311,32 @@
         <v>65</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="L26" s="3"/>
     </row>
@@ -38996,32 +39367,32 @@
         <v>68</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -39030,7 +39401,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -39042,7 +39413,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G29" s="14" t="n">
         <v>2</v>
@@ -39052,7 +39423,7 @@
         <v>70</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="K29" s="14" t="n">
         <v>2</v>
@@ -39105,7 +39476,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -39126,7 +39497,7 @@
         <v>58</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -39134,7 +39505,7 @@
         <v>58</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -39166,7 +39537,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -39174,7 +39545,7 @@
         <v>62</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -39188,7 +39559,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -39196,7 +39567,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -39210,7 +39581,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -39218,7 +39589,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -39232,7 +39603,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -39240,7 +39611,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -39254,7 +39625,7 @@
         <v>70</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -39264,13 +39635,13 @@
         <v>70</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -39282,17 +39653,17 @@
         <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -39304,19 +39675,19 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -39326,21 +39697,21 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -39380,382 +39751,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>402</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="84" t="s">
-        <v>404</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="84" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="84" t="s">
-        <v>405</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="84" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="render_tree" sheetId="1" state="visible" r:id="rId2"/>
@@ -2800,20 +2800,20 @@
   </sheetPr>
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.57"/>
   </cols>
   <sheetData>
@@ -31709,8 +31709,8 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.944444444444444" bottom="0.747916666666667" header="0.747916666666667" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.944444444444444" bottom="0.747916666666667" header="0.747916666666667" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter/>
@@ -31729,12 +31729,12 @@
       <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
@@ -31990,8 +31990,8 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.747916666666667" header="0.315277777777778" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter/>
@@ -32010,7 +32010,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
@@ -32509,7 +32509,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
@@ -32528,16 +32528,16 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33039,7 +33039,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
@@ -33055,23 +33055,23 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="50.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.77"/>
   </cols>
@@ -34297,7 +34297,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
@@ -34312,11 +34312,11 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.14"/>
@@ -35075,8 +35075,8 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -35095,19 +35095,19 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.57"/>
   </cols>
@@ -35408,8 +35408,8 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555556" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter/>
@@ -35428,11 +35428,11 @@
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.14"/>
@@ -35705,8 +35705,8 @@
     <mergeCell ref="D8:E8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -35725,24 +35725,24 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="1.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="7.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="1.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="37" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="38" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="38" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="38" width="11.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="38" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="3" width="8.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="3" width="9.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="3" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36567,8 +36567,8 @@
     <mergeCell ref="C20:E20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -36587,22 +36587,22 @@
       <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="10.39"/>
@@ -38315,8 +38315,8 @@
     <mergeCell ref="D105:G105"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -38335,14 +38335,14 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38671,7 +38671,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Pagina &amp;P</oddFooter>
@@ -38690,17 +38690,17 @@
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.57"/>
@@ -39742,8 +39742,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="0.7875" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
@@ -39762,12 +39762,12 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.64"/>
   </cols>
   <sheetData>
@@ -39843,8 +39843,8 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.06319444444444" bottom="1.06319444444444" header="0.7875" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter/>
